--- a/data/IKPA_DESEMBER_2025.xlsx
+++ b/data/IKPA_DESEMBER_2025.xlsx
@@ -2222,24 +2222,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>597480</t>
+          <t>665292</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
+          <t>POLRES OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>94.38</v>
+        <v>91.5</v>
       </c>
       <c r="G20" t="n">
-        <v>97.89</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -2248,36 +2248,36 @@
         <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>88.75</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>95.77</v>
+        <v>100</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
       </c>
       <c r="P20" t="n">
-        <v>77.89</v>
+        <v>97.45</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.36</v>
+        <v>97.45</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2289,17 +2289,17 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT (597480)</t>
+          <t>POLRES OKUT (665292)</t>
         </is>
       </c>
     </row>
@@ -2314,24 +2314,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>597480</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>92.09</v>
+        <v>94.38</v>
       </c>
       <c r="G21" t="n">
-        <v>98.92</v>
+        <v>97.89</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
@@ -2340,36 +2340,36 @@
         <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>84.17</v>
+        <v>88.75</v>
       </c>
       <c r="K21" t="n">
-        <v>99.68000000000001</v>
+        <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>100</v>
+        <v>95.77</v>
       </c>
       <c r="O21" t="n">
         <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>97.16</v>
+        <v>77.89</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>97.16</v>
+        <v>97.36</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2381,17 +2381,17 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>KEJARI  OKU</t>
+          <t>MTSN 4 OKUT</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>KEJARI  OKU</t>
+          <t>MTSN 4 OKUT</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>KEJARI  OKU (007130)</t>
+          <t>MTSN 4 OKUT (597480)</t>
         </is>
       </c>
     </row>
@@ -2406,24 +2406,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>95.7</v>
+        <v>92.09</v>
       </c>
       <c r="G22" t="n">
-        <v>97.33</v>
+        <v>98.92</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -2432,16 +2432,16 @@
         <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>91.39</v>
+        <v>84.17</v>
       </c>
       <c r="K22" t="n">
-        <v>94.66</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
         <v>100</v>
@@ -2450,18 +2450,18 @@
         <v>100</v>
       </c>
       <c r="P22" t="n">
-        <v>77.64</v>
+        <v>97.16</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>97.05</v>
+        <v>97.16</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2473,17 +2473,17 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEJARI  OKU</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEJARI  OKU</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440503)</t>
+          <t>KEJARI  OKU (007130)</t>
         </is>
       </c>
     </row>
@@ -2503,19 +2503,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>418456</t>
+          <t>440503</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>92.08</v>
+        <v>95.7</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>97.33</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -2524,10 +2524,10 @@
         <v>100</v>
       </c>
       <c r="J23" t="n">
-        <v>84.16</v>
+        <v>91.39</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>94.66</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="n">
-        <v>77.62</v>
+        <v>77.64</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.03</v>
+        <v>97.05</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2565,17 +2565,17 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418456)</t>
+          <t>KEMENAG OKUS (440503)</t>
         </is>
       </c>
     </row>
@@ -2595,19 +2595,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>93.45999999999999</v>
+        <v>92.08</v>
       </c>
       <c r="G24" t="n">
-        <v>97.66</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -2616,7 +2616,7 @@
         <v>100</v>
       </c>
       <c r="J24" t="n">
-        <v>86.91</v>
+        <v>84.16</v>
       </c>
       <c r="K24" t="n">
         <v>100</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>95.31</v>
+        <v>100</v>
       </c>
       <c r="O24" t="n">
         <v>100</v>
       </c>
       <c r="P24" t="n">
-        <v>77.56999999999999</v>
+        <v>77.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>96.95999999999999</v>
+        <v>97.03</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2657,17 +2657,17 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT (553099)</t>
+          <t>KEMENAG OKU (418456)</t>
         </is>
       </c>
     </row>
@@ -2682,24 +2682,24 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>007208</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>89.56</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>99.69</v>
+        <v>97.66</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
@@ -2708,36 +2708,36 @@
         <v>100</v>
       </c>
       <c r="J25" t="n">
-        <v>79.11</v>
+        <v>86.91</v>
       </c>
       <c r="K25" t="n">
         <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>98.77</v>
+        <v>95.31</v>
       </c>
       <c r="O25" t="n">
         <v>100</v>
       </c>
       <c r="P25" t="n">
-        <v>96.73999999999999</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.73999999999999</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2749,17 +2749,17 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>MTSN 3 OKUT</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>MTSN 3 OKUT</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>KEJARI OKUS (007208)</t>
+          <t>MTSN 3 OKUT (553099)</t>
         </is>
       </c>
     </row>
@@ -2774,24 +2774,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>91.65000000000001</v>
+        <v>89.56</v>
       </c>
       <c r="G26" t="n">
-        <v>99.63</v>
+        <v>99.69</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -2800,36 +2800,36 @@
         <v>100</v>
       </c>
       <c r="J26" t="n">
-        <v>83.29000000000001</v>
+        <v>79.11</v>
       </c>
       <c r="K26" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>99.76000000000001</v>
+        <v>98.77</v>
       </c>
       <c r="O26" t="n">
         <v>100</v>
       </c>
       <c r="P26" t="n">
-        <v>77.37</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.70999999999999</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS (418462)</t>
+          <t>KEJARI OKUS (007208)</t>
         </is>
       </c>
     </row>
@@ -2871,19 +2871,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>111071</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>91.14</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>99.63</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -2892,10 +2892,10 @@
         <v>100</v>
       </c>
       <c r="J27" t="n">
-        <v>82.28</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>100</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="O27" t="n">
         <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>77.34</v>
+        <v>77.37</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>96.68000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2933,17 +2933,17 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (111071)</t>
+          <t>MTSN 2 OKUS (418462)</t>
         </is>
       </c>
     </row>
@@ -2958,24 +2958,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>656553</t>
+          <t>111071</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>93.44</v>
+        <v>91.14</v>
       </c>
       <c r="G28" t="n">
-        <v>96.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
         <v>100</v>
@@ -2984,36 +2984,36 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>86.87</v>
+        <v>82.28</v>
       </c>
       <c r="K28" t="n">
         <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>92.63</v>
+        <v>100</v>
       </c>
       <c r="O28" t="n">
         <v>100</v>
       </c>
       <c r="P28" t="n">
-        <v>96.63</v>
+        <v>77.34</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.63</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>KPU OKU (656553)</t>
+          <t>KEMENAG OKUT (111071)</t>
         </is>
       </c>
     </row>
@@ -3050,24 +3050,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>692334</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MUARA DUA</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>88.26000000000001</v>
+        <v>93.44</v>
       </c>
       <c r="G29" t="n">
-        <v>99.90000000000001</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -3076,25 +3076,25 @@
         <v>100</v>
       </c>
       <c r="J29" t="n">
-        <v>76.51000000000001</v>
+        <v>86.87</v>
       </c>
       <c r="K29" t="n">
-        <v>99.59</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>100</v>
+        <v>92.63</v>
       </c>
       <c r="O29" t="n">
         <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>96.39</v>
+        <v>96.63</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.39</v>
+        <v>96.63</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3117,17 +3117,17 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA (692334)</t>
+          <t>KPU OKU (656553)</t>
         </is>
       </c>
     </row>
@@ -3142,24 +3142,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
+          <t>LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>89.92</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>99.94</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -3168,36 +3168,36 @@
         <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>79.84</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
+        <v>99.59</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>99.88</v>
+        <v>100</v>
       </c>
       <c r="O30" t="n">
         <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>76.95999999999999</v>
+        <v>96.39</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>96.20999999999999</v>
+        <v>96.39</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS (661192)</t>
+          <t>LAPAS MUARA DUA (692334)</t>
         </is>
       </c>
     </row>
@@ -3234,24 +3234,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>91.73999999999999</v>
+        <v>89.92</v>
       </c>
       <c r="G31" t="n">
-        <v>96.89</v>
+        <v>99.94</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -3260,36 +3260,36 @@
         <v>100</v>
       </c>
       <c r="J31" t="n">
-        <v>83.47</v>
+        <v>79.84</v>
       </c>
       <c r="K31" t="n">
-        <v>99.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>88.34999999999999</v>
+        <v>99.88</v>
       </c>
       <c r="O31" t="n">
         <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>96.2</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.2</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>BPN OKUT (669055)</t>
+          <t>MTSN 4 OKUS (661192)</t>
         </is>
       </c>
     </row>
@@ -3326,24 +3326,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>94.62</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>95.44</v>
+        <v>96.89</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -3352,36 +3352,36 @@
         <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>89.23</v>
+        <v>83.47</v>
       </c>
       <c r="K32" t="n">
-        <v>94.78</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>96.09</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="O32" t="n">
         <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>76.95</v>
+        <v>96.2</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.19</v>
+        <v>96.2</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666504)</t>
+          <t>BPN OKUT (669055)</t>
         </is>
       </c>
     </row>
@@ -3418,24 +3418,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>007190</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>87.45999999999999</v>
+        <v>94.62</v>
       </c>
       <c r="G33" t="n">
-        <v>99.73999999999999</v>
+        <v>95.44</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -3444,36 +3444,36 @@
         <v>100</v>
       </c>
       <c r="J33" t="n">
-        <v>74.91</v>
+        <v>89.23</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
+        <v>94.78</v>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>98.95999999999999</v>
+        <v>96.09</v>
       </c>
       <c r="O33" t="n">
         <v>100</v>
       </c>
       <c r="P33" t="n">
-        <v>96.13</v>
+        <v>76.95</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>96.13</v>
+        <v>96.19</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>KEJARI OKUT (007190)</t>
+          <t>KEMENAG OKUT (666504)</t>
         </is>
       </c>
     </row>
@@ -3510,24 +3510,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>007190</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>90.66</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>98.04000000000001</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
@@ -3536,36 +3536,36 @@
         <v>100</v>
       </c>
       <c r="J34" t="n">
-        <v>81.31999999999999</v>
+        <v>74.91</v>
       </c>
       <c r="K34" t="n">
         <v>100</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>96.08</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="O34" t="n">
         <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>76.81</v>
+        <v>96.13</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.01000000000001</v>
+        <v>96.13</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440502)</t>
+          <t>KEJARI OKUT (007190)</t>
         </is>
       </c>
     </row>
@@ -3607,19 +3607,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>89.28</v>
+        <v>90.66</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -3628,7 +3628,7 @@
         <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>78.55</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="K35" t="n">
         <v>100</v>
@@ -3640,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>100</v>
+        <v>96.08</v>
       </c>
       <c r="O35" t="n">
         <v>100</v>
       </c>
       <c r="P35" t="n">
-        <v>76.78</v>
+        <v>76.81</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.98</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3669,17 +3669,17 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS (662127)</t>
+          <t>KEMENAG OKUS (440502)</t>
         </is>
       </c>
     </row>
@@ -3786,24 +3786,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>90.8</v>
+        <v>89.28</v>
       </c>
       <c r="G37" t="n">
-        <v>96.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -3812,36 +3812,36 @@
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>81.59</v>
+        <v>78.55</v>
       </c>
       <c r="K37" t="n">
         <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>93.69</v>
+        <v>100</v>
       </c>
       <c r="O37" t="n">
         <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>95.94</v>
+        <v>76.78</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.94</v>
+        <v>95.98</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3853,17 +3853,17 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>KPU OKUT (656560)</t>
+          <t>MAN 1 OKUS (662127)</t>
         </is>
       </c>
     </row>
@@ -3878,51 +3878,51 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU TIMUR</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>91.5</v>
+        <v>90.8</v>
       </c>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>93.64</v>
+        <v>100</v>
       </c>
       <c r="I38" t="n">
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>82.98999999999999</v>
+        <v>81.59</v>
       </c>
       <c r="K38" t="n">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="L38" t="n">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="M38" t="n">
         <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>100</v>
+        <v>93.69</v>
       </c>
       <c r="O38" t="n">
-        <v>93.64</v>
+        <v>100</v>
       </c>
       <c r="P38" t="n">
-        <v>95.86</v>
+        <v>95.94</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.86</v>
+        <v>95.94</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>POLRES OKUT (665292)</t>
+          <t>KPU OKUT (656560)</t>
         </is>
       </c>
     </row>
@@ -4430,24 +4430,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>87.73</v>
+        <v>85.12</v>
       </c>
       <c r="G44" t="n">
-        <v>98.56</v>
+        <v>98.86</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -4456,36 +4456,36 @@
         <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>75.45</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="K44" t="n">
         <v>100</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>97.12</v>
+        <v>95.44</v>
       </c>
       <c r="O44" t="n">
         <v>100</v>
       </c>
       <c r="P44" t="n">
-        <v>76.03</v>
+        <v>95.08</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.04000000000001</v>
+        <v>95.08</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4497,17 +4497,17 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>BPN OKU (431142)</t>
         </is>
       </c>
     </row>
@@ -4803,57 +4803,57 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>88.69</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>95.83</v>
+        <v>99.92</v>
       </c>
       <c r="H48" t="n">
-        <v>100</v>
+        <v>94.45</v>
       </c>
       <c r="I48" t="n">
         <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>77.37</v>
+        <v>72.13</v>
       </c>
       <c r="K48" t="n">
-        <v>96.13</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>95.52</v>
+        <v>99.69</v>
       </c>
       <c r="O48" t="n">
-        <v>100</v>
+        <v>94.45</v>
       </c>
       <c r="P48" t="n">
-        <v>75.38</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>94.23</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418458)</t>
+          <t>MAN 1 OKU (424245)</t>
         </is>
       </c>
     </row>
@@ -4895,19 +4895,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>86.31999999999999</v>
+        <v>88.69</v>
       </c>
       <c r="G49" t="n">
-        <v>98.68000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
@@ -4916,10 +4916,10 @@
         <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>72.63</v>
+        <v>77.37</v>
       </c>
       <c r="K49" t="n">
-        <v>97.34999999999999</v>
+        <v>96.13</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4928,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>100</v>
+        <v>95.52</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
       </c>
       <c r="P49" t="n">
-        <v>75.36</v>
+        <v>75.38</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>94.20999999999999</v>
+        <v>94.23</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4957,17 +4957,17 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666503)</t>
+          <t>KEMENAG OKU (418458)</t>
         </is>
       </c>
     </row>
@@ -4982,62 +4982,62 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>692340</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MARTAPURA</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>77.09</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>99.73999999999999</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>74.18000000000001</v>
+        <v>72.63</v>
       </c>
       <c r="K50" t="n">
-        <v>99.29000000000001</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>99.69</v>
+        <v>100</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
       </c>
       <c r="P50" t="n">
-        <v>93.95</v>
+        <v>75.36</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>93.95</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA (692340)</t>
+          <t>KEMENAG OKUT (666503)</t>
         </is>
       </c>
     </row>
@@ -5074,62 +5074,62 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>066</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>111079</t>
+          <t>692340</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>LAPAS KELAS II B MARTAPURA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>85.34</v>
+        <v>77.09</v>
       </c>
       <c r="G51" t="n">
-        <v>97.68000000000001</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J51" t="n">
-        <v>70.68000000000001</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>95.37</v>
+        <v>99.69</v>
       </c>
       <c r="O51" t="n">
         <v>100</v>
       </c>
       <c r="P51" t="n">
-        <v>75.14</v>
+        <v>93.95</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>93.92</v>
+        <v>93.95</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>BNN OKUT (111079)</t>
+          <t>LAPAS MARTAPURA (692340)</t>
         </is>
       </c>
     </row>
@@ -5166,24 +5166,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>066</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>84.59999999999999</v>
+        <v>85.34</v>
       </c>
       <c r="G52" t="n">
-        <v>98.61</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
@@ -5192,7 +5192,7 @@
         <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>69.19</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="K52" t="n">
         <v>100</v>
@@ -5204,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>97.22</v>
+        <v>95.37</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
       </c>
       <c r="P52" t="n">
-        <v>75.09999999999999</v>
+        <v>75.14</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>93.88</v>
+        <v>93.92</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5233,17 +5233,17 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666505)</t>
+          <t>BNN OKUT (111079)</t>
         </is>
       </c>
     </row>
@@ -5263,19 +5263,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>418459</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>82.95999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>98.61</v>
       </c>
       <c r="H53" t="n">
         <v>100</v>
@@ -5284,7 +5284,7 @@
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>65.92</v>
+        <v>69.19</v>
       </c>
       <c r="K53" t="n">
         <v>100</v>
@@ -5296,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>100</v>
+        <v>97.22</v>
       </c>
       <c r="O53" t="n">
         <v>100</v>
       </c>
       <c r="P53" t="n">
-        <v>74.89</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>93.61</v>
+        <v>93.88</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418459)</t>
+          <t>KEMENAG OKUT (666505)</t>
         </is>
       </c>
     </row>
@@ -5350,24 +5350,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>692725</t>
+          <t>418459</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>RUPBASAN KELAS II BATURAJA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>85.28</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>96.28</v>
+        <v>100</v>
       </c>
       <c r="H54" t="n">
         <v>100</v>
@@ -5376,29 +5376,29 @@
         <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>70.55</v>
+        <v>65.92</v>
       </c>
       <c r="K54" t="n">
-        <v>95.12</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O54" t="n">
         <v>100</v>
       </c>
       <c r="P54" t="n">
-        <v>93.61</v>
+        <v>74.89</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R54" t="n">
@@ -5417,17 +5417,17 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA (692725)</t>
+          <t>KEMENAG OKU (418459)</t>
         </is>
       </c>
     </row>
@@ -5442,24 +5442,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>666501</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>RUPBASAN KELAS II BATURAJA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>85.67</v>
+        <v>85.28</v>
       </c>
       <c r="G55" t="n">
-        <v>95.27</v>
+        <v>96.28</v>
       </c>
       <c r="H55" t="n">
         <v>100</v>
@@ -5468,36 +5468,36 @@
         <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>71.33</v>
+        <v>70.55</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
+        <v>95.12</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>90.54000000000001</v>
+        <v>90</v>
       </c>
       <c r="O55" t="n">
         <v>100</v>
       </c>
       <c r="P55" t="n">
-        <v>74.75</v>
+        <v>93.61</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>93.44</v>
+        <v>93.61</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666501)</t>
+          <t>RUPBASAN BATURAJA (692725)</t>
         </is>
       </c>
     </row>
@@ -5539,19 +5539,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>419006</t>
+          <t>686503</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>82.31</v>
+        <v>84.27</v>
       </c>
       <c r="G56" t="n">
-        <v>96.84</v>
+        <v>97.36</v>
       </c>
       <c r="H56" t="n">
         <v>100</v>
@@ -5560,36 +5560,36 @@
         <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>64.62</v>
+        <v>68.53</v>
       </c>
       <c r="K56" t="n">
         <v>100</v>
       </c>
       <c r="L56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>87.34999999999999</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="O56" t="n">
         <v>100</v>
       </c>
       <c r="P56" t="n">
-        <v>93.43000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R56" t="n">
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>93.43000000000001</v>
+        <v>93.44</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5601,17 +5601,17 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>BAWASLU OKU (419006)</t>
+          <t>BAWASLU OKUS (686503)</t>
         </is>
       </c>
     </row>
@@ -5626,24 +5626,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>666507</t>
+          <t>419006</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>90.12</v>
+        <v>82.31</v>
       </c>
       <c r="G57" t="n">
-        <v>89.23999999999999</v>
+        <v>96.84</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
@@ -5652,36 +5652,36 @@
         <v>100</v>
       </c>
       <c r="J57" t="n">
-        <v>80.23999999999999</v>
+        <v>64.62</v>
       </c>
       <c r="K57" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>88.48</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="O57" t="n">
         <v>100</v>
       </c>
       <c r="P57" t="n">
-        <v>73.88</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>92.36</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5693,17 +5693,17 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666507)</t>
+          <t>BAWASLU OKU (419006)</t>
         </is>
       </c>
     </row>
@@ -5718,24 +5718,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>344894</t>
+          <t>666501</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>80.56999999999999</v>
+        <v>85.67</v>
       </c>
       <c r="G58" t="n">
-        <v>95.42</v>
+        <v>95.27</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -5744,36 +5744,36 @@
         <v>100</v>
       </c>
       <c r="J58" t="n">
-        <v>61.14</v>
+        <v>71.33</v>
       </c>
       <c r="K58" t="n">
-        <v>98.94</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>98.75</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="O58" t="n">
         <v>100</v>
       </c>
       <c r="P58" t="n">
-        <v>92.23</v>
+        <v>74.75</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>92.23</v>
+        <v>92.44</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR (344894)</t>
+          <t>KEMENAG OKUT (666501)</t>
         </is>
       </c>
     </row>
@@ -5810,62 +5810,62 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>012</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>344894</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>84.27</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>97.36</v>
+        <v>95.42</v>
       </c>
       <c r="H59" t="n">
-        <v>95.88</v>
+        <v>100</v>
       </c>
       <c r="I59" t="n">
         <v>100</v>
       </c>
       <c r="J59" t="n">
-        <v>68.53</v>
+        <v>61.14</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>98.94</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>94.70999999999999</v>
+        <v>98.75</v>
       </c>
       <c r="O59" t="n">
-        <v>95.88</v>
+        <v>100</v>
       </c>
       <c r="P59" t="n">
-        <v>73.72</v>
+        <v>92.23</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>92.15000000000001</v>
+        <v>92.23</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5877,17 +5877,17 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS (686503)</t>
+          <t>RUMKIT NOESMIR (344894)</t>
         </is>
       </c>
     </row>
@@ -6086,24 +6086,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>666502</t>
+          <t>099228</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>83.94</v>
+        <v>83.98</v>
       </c>
       <c r="G62" t="n">
-        <v>94.55</v>
+        <v>94.33</v>
       </c>
       <c r="H62" t="n">
         <v>100</v>
@@ -6112,10 +6112,10 @@
         <v>100</v>
       </c>
       <c r="J62" t="n">
-        <v>67.88</v>
+        <v>67.95</v>
       </c>
       <c r="K62" t="n">
-        <v>89.79000000000001</v>
+        <v>91.13</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6124,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>99.3</v>
+        <v>97.52</v>
       </c>
       <c r="O62" t="n">
         <v>100</v>
       </c>
       <c r="P62" t="n">
-        <v>73.06999999999999</v>
+        <v>73.17</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>91.34</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -6153,17 +6153,17 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666502)</t>
+          <t>PN BATURAJA (099228)</t>
         </is>
       </c>
     </row>
@@ -6178,36 +6178,36 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>099228</t>
+          <t>666502</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>83.98</v>
+        <v>83.94</v>
       </c>
       <c r="G63" t="n">
-        <v>94.33</v>
+        <v>94.55</v>
       </c>
       <c r="H63" t="n">
-        <v>98.88</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
         <v>100</v>
       </c>
       <c r="J63" t="n">
-        <v>67.95</v>
+        <v>67.88</v>
       </c>
       <c r="K63" t="n">
-        <v>91.13</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -6216,13 +6216,13 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>97.52</v>
+        <v>99.3</v>
       </c>
       <c r="O63" t="n">
-        <v>98.88</v>
+        <v>100</v>
       </c>
       <c r="P63" t="n">
-        <v>72.89</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>91.11</v>
+        <v>91.34</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -6245,17 +6245,17 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>PN BATURAJA (099228)</t>
+          <t>KEMENAG OKUT (666502)</t>
         </is>
       </c>
     </row>
@@ -6546,62 +6546,62 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>691653</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>86.06999999999999</v>
+        <v>75.84</v>
       </c>
       <c r="G67" t="n">
-        <v>99.92</v>
+        <v>66.83</v>
       </c>
       <c r="H67" t="n">
-        <v>59.45</v>
+        <v>100</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>72.13</v>
+        <v>51.67</v>
       </c>
       <c r="K67" t="n">
-        <v>100</v>
+        <v>50.49</v>
       </c>
       <c r="L67" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M67" t="n">
         <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>99.69</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>59.45</v>
+        <v>100</v>
       </c>
       <c r="P67" t="n">
-        <v>85.65000000000001</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>85.65000000000001</v>
+        <v>75.39</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6613,17 +6613,17 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>DISNAKERTRANS OKUT</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>DISNAKERTRANS OKUT</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>MAN 1 OKU (424245)</t>
+          <t>DISNAKERTRANS OKUT (691653)</t>
         </is>
       </c>
     </row>
@@ -6638,62 +6638,62 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>691653</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>75.84</v>
+        <v>87.73</v>
       </c>
       <c r="G68" t="n">
-        <v>66.83</v>
+        <v>98.56</v>
       </c>
       <c r="H68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>100</v>
       </c>
       <c r="J68" t="n">
-        <v>51.67</v>
+        <v>75.45</v>
       </c>
       <c r="K68" t="n">
-        <v>50.49</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>97.12</v>
       </c>
       <c r="O68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>67.84999999999999</v>
+        <v>51.03</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>75.39</v>
+        <v>63.79</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6705,17 +6705,17 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT (691653)</t>
+          <t>MTSN 1 OKU (426050)</t>
         </is>
       </c>
     </row>
@@ -6730,24 +6730,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>666507</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>85.12</v>
+        <v>90.12</v>
       </c>
       <c r="G69" t="n">
-        <v>98.86</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6756,36 +6756,36 @@
         <v>100</v>
       </c>
       <c r="J69" t="n">
-        <v>70.23999999999999</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>95.44</v>
+        <v>88.48</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>70.08</v>
+        <v>48.88</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>70.08</v>
+        <v>61.11</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>BPN OKU (431142)</t>
+          <t>KEMENAG OKUT (666507)</t>
         </is>
       </c>
     </row>

--- a/data/IKPA_DESEMBER_2025.xlsx
+++ b/data/IKPA_DESEMBER_2025.xlsx
@@ -1578,24 +1578,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>054</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>665307</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU SELATAN</t>
+          <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>99.83</v>
+        <v>99.69</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -1607,7 +1607,7 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3</v>
+        <v>98.75</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
@@ -1622,7 +1622,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="n">
-        <v>99.86</v>
+        <v>99.75</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>99.86</v>
+        <v>99.75</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1645,17 +1645,17 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>POLRES OKUS</t>
+          <t>BPS OKUS</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>POLRES OKUS</t>
+          <t>BPS OKUS</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>POLRES OKUS (665307)</t>
+          <t>BPS OKUS (667215)</t>
         </is>
       </c>
     </row>
@@ -1670,24 +1670,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>440506</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>99.69</v>
+        <v>97.13</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -1699,33 +1699,33 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>98.75</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>94.25</v>
       </c>
       <c r="O14" t="n">
         <v>100</v>
       </c>
       <c r="P14" t="n">
-        <v>99.75</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>99.75</v>
+        <v>99.28</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1737,17 +1737,17 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>BPS OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>BPS OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>BPS OKUS (667215)</t>
+          <t>KEMENAG OKUS (440506)</t>
         </is>
       </c>
     </row>
@@ -1762,24 +1762,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>440506</t>
+          <t>692625</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>BAPAS KELAS II OKU INDUK</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>97.13</v>
+        <v>99.69</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
@@ -1788,10 +1788,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>94.08</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>99.38</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>94.25</v>
+        <v>100</v>
       </c>
       <c r="O15" t="n">
         <v>100</v>
       </c>
       <c r="P15" t="n">
-        <v>79.43000000000001</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>99.28</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1829,17 +1829,17 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BAPAS OKU INDUK</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BAPAS OKU INDUK</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440506)</t>
+          <t>BAPAS OKU INDUK (692625)</t>
         </is>
       </c>
     </row>
@@ -1854,24 +1854,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>692625</t>
+          <t>641681</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BAPAS KELAS II OKU INDUK</t>
+          <t>POLRES OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>97.04000000000001</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>99.69</v>
+        <v>99.98</v>
       </c>
       <c r="H16" t="n">
         <v>100</v>
@@ -1880,36 +1880,36 @@
         <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>94.08</v>
+        <v>90.02</v>
       </c>
       <c r="K16" t="n">
-        <v>99.38</v>
+        <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>100</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="O16" t="n">
         <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>78.98999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>98.73999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1921,17 +1921,17 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK</t>
+          <t>POLRES OKU</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK</t>
+          <t>POLRES OKU</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK (692625)</t>
+          <t>POLRES OKU (641681)</t>
         </is>
       </c>
     </row>
@@ -1946,24 +1946,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>641681</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>95.01000000000001</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>99.98</v>
+        <v>99.95</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -1972,7 +1972,7 @@
         <v>100</v>
       </c>
       <c r="J17" t="n">
-        <v>90.02</v>
+        <v>86.42</v>
       </c>
       <c r="K17" t="n">
         <v>100</v>
@@ -1984,13 +1984,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>99.93000000000001</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="O17" t="n">
         <v>100</v>
       </c>
       <c r="P17" t="n">
-        <v>98.5</v>
+        <v>97.94</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>98.5</v>
+        <v>97.94</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2013,17 +2013,17 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>POLRES OKU</t>
+          <t>PA MUARADUA</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>POLRES OKU</t>
+          <t>PA MUARADUA</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>POLRES OKU (641681)</t>
+          <t>PA MUARADUA (401945)</t>
         </is>
       </c>
     </row>
@@ -2038,24 +2038,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>401945</t>
+          <t>665292</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>POLRES OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>93.20999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="G18" t="n">
-        <v>99.95</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
         <v>100</v>
@@ -2064,10 +2064,10 @@
         <v>100</v>
       </c>
       <c r="J18" t="n">
-        <v>86.42</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
@@ -2076,13 +2076,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>99.79000000000001</v>
+        <v>100</v>
       </c>
       <c r="O18" t="n">
         <v>100</v>
       </c>
       <c r="P18" t="n">
-        <v>97.94</v>
+        <v>97.45</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>97.94</v>
+        <v>97.45</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2105,17 +2105,17 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>PA MUARADUA</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>PA MUARADUA</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>PA MUARADUA (401945)</t>
+          <t>POLRES OKUT (665292)</t>
         </is>
       </c>
     </row>
@@ -2222,24 +2222,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>597480</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>91.5</v>
+        <v>94.38</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>97.89</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -2248,36 +2248,36 @@
         <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>82.98999999999999</v>
+        <v>88.75</v>
       </c>
       <c r="K20" t="n">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>100</v>
+        <v>95.77</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
       </c>
       <c r="P20" t="n">
-        <v>97.45</v>
+        <v>77.89</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.45</v>
+        <v>97.36</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2289,17 +2289,17 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>MTSN 4 OKUT</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>MTSN 4 OKUT</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>POLRES OKUT (665292)</t>
+          <t>MTSN 4 OKUT (597480)</t>
         </is>
       </c>
     </row>
@@ -2314,24 +2314,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>597480</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>94.38</v>
+        <v>92.09</v>
       </c>
       <c r="G21" t="n">
-        <v>97.89</v>
+        <v>98.92</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
@@ -2340,36 +2340,36 @@
         <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>88.75</v>
+        <v>84.17</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>95.77</v>
+        <v>100</v>
       </c>
       <c r="O21" t="n">
         <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>77.89</v>
+        <v>97.16</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>97.36</v>
+        <v>97.16</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2381,17 +2381,17 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>KEJARI  OKU</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>KEJARI  OKU</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT (597480)</t>
+          <t>KEJARI  OKU (007130)</t>
         </is>
       </c>
     </row>
@@ -2406,24 +2406,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>440503</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>92.09</v>
+        <v>95.7</v>
       </c>
       <c r="G22" t="n">
-        <v>98.92</v>
+        <v>97.33</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -2432,16 +2432,16 @@
         <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>84.17</v>
+        <v>91.39</v>
       </c>
       <c r="K22" t="n">
-        <v>99.68000000000001</v>
+        <v>94.66</v>
       </c>
       <c r="L22" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>100</v>
@@ -2450,18 +2450,18 @@
         <v>100</v>
       </c>
       <c r="P22" t="n">
-        <v>97.16</v>
+        <v>77.64</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>97.16</v>
+        <v>97.05</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2473,17 +2473,17 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>KEJARI  OKU</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>KEJARI  OKU</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>KEJARI  OKU (007130)</t>
+          <t>KEMENAG OKUS (440503)</t>
         </is>
       </c>
     </row>
@@ -2503,19 +2503,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>95.7</v>
+        <v>92.08</v>
       </c>
       <c r="G23" t="n">
-        <v>97.33</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -2524,10 +2524,10 @@
         <v>100</v>
       </c>
       <c r="J23" t="n">
-        <v>91.39</v>
+        <v>84.16</v>
       </c>
       <c r="K23" t="n">
-        <v>94.66</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="n">
-        <v>77.64</v>
+        <v>77.62</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.05</v>
+        <v>97.03</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2565,17 +2565,17 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440503)</t>
+          <t>KEMENAG OKU (418456)</t>
         </is>
       </c>
     </row>
@@ -2595,19 +2595,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>418456</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>92.08</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>97.66</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -2616,7 +2616,7 @@
         <v>100</v>
       </c>
       <c r="J24" t="n">
-        <v>84.16</v>
+        <v>86.91</v>
       </c>
       <c r="K24" t="n">
         <v>100</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>100</v>
+        <v>95.31</v>
       </c>
       <c r="O24" t="n">
         <v>100</v>
       </c>
       <c r="P24" t="n">
-        <v>77.62</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>97.03</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2657,17 +2657,17 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MTSN 3 OKUT</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MTSN 3 OKUT</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418456)</t>
+          <t>MTSN 3 OKUT (553099)</t>
         </is>
       </c>
     </row>
@@ -2687,19 +2687,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>93.45999999999999</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>97.66</v>
+        <v>99.63</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
@@ -2708,10 +2708,10 @@
         <v>100</v>
       </c>
       <c r="J25" t="n">
-        <v>86.91</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2720,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>95.31</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="O25" t="n">
         <v>100</v>
       </c>
       <c r="P25" t="n">
-        <v>77.56999999999999</v>
+        <v>77.37</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.95999999999999</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2749,17 +2749,17 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT (553099)</t>
+          <t>MTSN 2 OKUS (418462)</t>
         </is>
       </c>
     </row>
@@ -2774,24 +2774,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>007208</t>
+          <t>111071</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>89.56</v>
+        <v>91.14</v>
       </c>
       <c r="G26" t="n">
-        <v>99.69</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -2800,36 +2800,36 @@
         <v>100</v>
       </c>
       <c r="J26" t="n">
-        <v>79.11</v>
+        <v>82.28</v>
       </c>
       <c r="K26" t="n">
         <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>98.77</v>
+        <v>100</v>
       </c>
       <c r="O26" t="n">
         <v>100</v>
       </c>
       <c r="P26" t="n">
-        <v>96.73999999999999</v>
+        <v>77.34</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.73999999999999</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>KEJARI OKUS (007208)</t>
+          <t>KEMENAG OKUT (111071)</t>
         </is>
       </c>
     </row>
@@ -2866,24 +2866,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>91.65000000000001</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>99.63</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -2892,36 +2892,36 @@
         <v>100</v>
       </c>
       <c r="J27" t="n">
-        <v>83.29000000000001</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>99.5</v>
+        <v>99.59</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>99.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="O27" t="n">
         <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>77.37</v>
+        <v>96.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>96.70999999999999</v>
+        <v>96.39</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2933,17 +2933,17 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS (418462)</t>
+          <t>LAPAS MUARA DUA (692334)</t>
         </is>
       </c>
     </row>
@@ -2963,19 +2963,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>111071</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>91.14</v>
+        <v>89.92</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>99.94</v>
       </c>
       <c r="H28" t="n">
         <v>100</v>
@@ -2984,7 +2984,7 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>82.28</v>
+        <v>79.84</v>
       </c>
       <c r="K28" t="n">
         <v>100</v>
@@ -2996,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>100</v>
+        <v>99.88</v>
       </c>
       <c r="O28" t="n">
         <v>100</v>
       </c>
       <c r="P28" t="n">
-        <v>77.34</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.68000000000001</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (111071)</t>
+          <t>MTSN 4 OKUS (661192)</t>
         </is>
       </c>
     </row>
@@ -3050,24 +3050,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>656553</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>93.44</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>96.48999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -3076,25 +3076,25 @@
         <v>100</v>
       </c>
       <c r="J29" t="n">
-        <v>86.87</v>
+        <v>83.47</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>93.33</v>
+        <v>100</v>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>92.63</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="O29" t="n">
         <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>96.63</v>
+        <v>96.2</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.63</v>
+        <v>96.2</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3117,17 +3117,17 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>KPU OKU (656553)</t>
+          <t>BPN OKUT (669055)</t>
         </is>
       </c>
     </row>
@@ -3142,24 +3142,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>692334</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MUARA DUA</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>88.26000000000001</v>
+        <v>94.62</v>
       </c>
       <c r="G30" t="n">
-        <v>99.90000000000001</v>
+        <v>95.44</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -3168,36 +3168,36 @@
         <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>76.51000000000001</v>
+        <v>89.23</v>
       </c>
       <c r="K30" t="n">
-        <v>99.59</v>
+        <v>94.78</v>
       </c>
       <c r="L30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>100</v>
+        <v>96.09</v>
       </c>
       <c r="O30" t="n">
         <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>96.39</v>
+        <v>76.95</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>96.39</v>
+        <v>96.19</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA (692334)</t>
+          <t>KEMENAG OKUT (666504)</t>
         </is>
       </c>
     </row>
@@ -3239,19 +3239,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>89.92</v>
+        <v>90.66</v>
       </c>
       <c r="G31" t="n">
-        <v>99.94</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -3260,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="J31" t="n">
-        <v>79.84</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>100</v>
@@ -3272,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>99.88</v>
+        <v>96.08</v>
       </c>
       <c r="O31" t="n">
         <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>76.95999999999999</v>
+        <v>76.81</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.20999999999999</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS (661192)</t>
+          <t>KEMENAG OKUS (440502)</t>
         </is>
       </c>
     </row>
@@ -3326,24 +3326,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>91.73999999999999</v>
+        <v>89.28</v>
       </c>
       <c r="G32" t="n">
-        <v>96.89</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -3352,36 +3352,36 @@
         <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>83.47</v>
+        <v>78.55</v>
       </c>
       <c r="K32" t="n">
-        <v>99.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>88.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="O32" t="n">
         <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>96.2</v>
+        <v>76.78</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.2</v>
+        <v>95.98</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>BPN OKUT (669055)</t>
+          <t>MAN 1 OKUS (662127)</t>
         </is>
       </c>
     </row>
@@ -3423,19 +3423,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>424967</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>94.62</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>95.44</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -3444,36 +3444,36 @@
         <v>100</v>
       </c>
       <c r="J33" t="n">
-        <v>89.23</v>
+        <v>80.08</v>
       </c>
       <c r="K33" t="n">
-        <v>94.78</v>
+        <v>94.83</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>96.09</v>
+        <v>100</v>
       </c>
       <c r="O33" t="n">
         <v>100</v>
       </c>
       <c r="P33" t="n">
-        <v>76.95</v>
+        <v>95.98</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>96.19</v>
+        <v>95.98</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666504)</t>
+          <t>MTSN 1 OKUT (424967)</t>
         </is>
       </c>
     </row>
@@ -3510,24 +3510,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>007190</t>
+          <t>418471</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>87.45999999999999</v>
+        <v>88.92</v>
       </c>
       <c r="G34" t="n">
-        <v>99.73999999999999</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
@@ -3536,36 +3536,36 @@
         <v>100</v>
       </c>
       <c r="J34" t="n">
-        <v>74.91</v>
+        <v>77.84</v>
       </c>
       <c r="K34" t="n">
         <v>100</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.95999999999999</v>
+        <v>100</v>
       </c>
       <c r="O34" t="n">
         <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>96.13</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.13</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>KEJARI OKUT (007190)</t>
+          <t>MTSN 2 OKUT (418471)</t>
         </is>
       </c>
     </row>
@@ -3602,24 +3602,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>90.66</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>98.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -3628,36 +3628,36 @@
         <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>81.31999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="K35" t="n">
         <v>100</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>96.08</v>
+        <v>100</v>
       </c>
       <c r="O35" t="n">
         <v>100</v>
       </c>
       <c r="P35" t="n">
-        <v>76.81</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.01000000000001</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3669,17 +3669,17 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440502)</t>
+          <t>PN BATURAJA (098963)</t>
         </is>
       </c>
     </row>
@@ -3699,19 +3699,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>424967</t>
+          <t>597558</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>90.04000000000001</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>98.70999999999999</v>
+        <v>98.42</v>
       </c>
       <c r="H36" t="n">
         <v>100</v>
@@ -3720,36 +3720,36 @@
         <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>80.08</v>
+        <v>78.41</v>
       </c>
       <c r="K36" t="n">
-        <v>94.83</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>100</v>
+        <v>96.83</v>
       </c>
       <c r="O36" t="n">
         <v>100</v>
       </c>
       <c r="P36" t="n">
-        <v>95.98</v>
+        <v>76.44</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>95.98</v>
+        <v>95.56</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT (424967)</t>
+          <t>MAN 2 OKUS (597558)</t>
         </is>
       </c>
     </row>
@@ -3786,24 +3786,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>89.28</v>
+        <v>90.33</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -3812,36 +3812,36 @@
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>78.55</v>
+        <v>80.66</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>93.77</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="O37" t="n">
         <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>76.78</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.98</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3853,17 +3853,17 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS (662127)</t>
+          <t>LOKA LABKESMAS (690801)</t>
         </is>
       </c>
     </row>
@@ -3878,24 +3878,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>90.8</v>
+        <v>85.12</v>
       </c>
       <c r="G38" t="n">
-        <v>96.76000000000001</v>
+        <v>98.86</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -3904,25 +3904,25 @@
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>81.59</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="K38" t="n">
         <v>100</v>
       </c>
       <c r="L38" t="n">
-        <v>93.33</v>
+        <v>100</v>
       </c>
       <c r="M38" t="n">
         <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>93.69</v>
+        <v>95.44</v>
       </c>
       <c r="O38" t="n">
         <v>100</v>
       </c>
       <c r="P38" t="n">
-        <v>95.94</v>
+        <v>95.08</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.94</v>
+        <v>95.08</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>KPU OKUT (656560)</t>
+          <t>BPN OKU (431142)</t>
         </is>
       </c>
     </row>
@@ -3975,16 +3975,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>440504</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>88.92</v>
+        <v>86.75</v>
       </c>
       <c r="G39" t="n">
         <v>100</v>
@@ -3996,7 +3996,7 @@
         <v>100</v>
       </c>
       <c r="J39" t="n">
-        <v>77.84</v>
+        <v>73.5</v>
       </c>
       <c r="K39" t="n">
         <v>100</v>
@@ -4014,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="P39" t="n">
-        <v>76.68000000000001</v>
+        <v>76.03</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>95.84999999999999</v>
+        <v>95.03</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT (418471)</t>
+          <t>KEMENAG OKUS (440504)</t>
         </is>
       </c>
     </row>
@@ -4062,24 +4062,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>426066</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>85.95999999999999</v>
+        <v>87.27</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>97.89</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -4088,25 +4088,25 @@
         <v>100</v>
       </c>
       <c r="J40" t="n">
-        <v>71.91</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
+        <v>96.16</v>
       </c>
       <c r="L40" t="n">
-        <v>100</v>
+        <v>95.55</v>
       </c>
       <c r="M40" t="n">
         <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>100</v>
+        <v>99.84</v>
       </c>
       <c r="O40" t="n">
         <v>100</v>
       </c>
       <c r="P40" t="n">
-        <v>95.79000000000001</v>
+        <v>94.95</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>95.79000000000001</v>
+        <v>94.95</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4129,17 +4129,17 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>PN BATURAJA (098963)</t>
+          <t>MAN 1 OKUT (426066)</t>
         </is>
       </c>
     </row>
@@ -4159,19 +4159,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>553792</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>89.20999999999999</v>
+        <v>89</v>
       </c>
       <c r="G41" t="n">
-        <v>98.42</v>
+        <v>97.19</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -4180,10 +4180,10 @@
         <v>100</v>
       </c>
       <c r="J41" t="n">
-        <v>78.41</v>
+        <v>78</v>
       </c>
       <c r="K41" t="n">
-        <v>100</v>
+        <v>94.37</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>96.83</v>
+        <v>100</v>
       </c>
       <c r="O41" t="n">
         <v>100</v>
       </c>
       <c r="P41" t="n">
-        <v>76.44</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.56</v>
+        <v>94.47</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4221,17 +4221,17 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS (597558)</t>
+          <t>MTSN 1 OKUS (553792)</t>
         </is>
       </c>
     </row>
@@ -4246,36 +4246,36 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>90.33</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>97.31999999999999</v>
+        <v>99.92</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>94.45</v>
       </c>
       <c r="I42" t="n">
         <v>100</v>
       </c>
       <c r="J42" t="n">
-        <v>80.66</v>
+        <v>72.13</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
         <v>100</v>
@@ -4284,13 +4284,13 @@
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>95.51000000000001</v>
+        <v>99.69</v>
       </c>
       <c r="O42" t="n">
-        <v>100</v>
+        <v>94.45</v>
       </c>
       <c r="P42" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>95.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS (690801)</t>
+          <t>MAN 1 OKU (424245)</t>
         </is>
       </c>
     </row>
@@ -4338,24 +4338,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>91.06</v>
+        <v>88.69</v>
       </c>
       <c r="G43" t="n">
-        <v>93.83</v>
+        <v>95.83</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -4364,10 +4364,10 @@
         <v>100</v>
       </c>
       <c r="J43" t="n">
-        <v>82.12</v>
+        <v>77.37</v>
       </c>
       <c r="K43" t="n">
-        <v>99.95</v>
+        <v>96.13</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4376,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>87.70999999999999</v>
+        <v>95.52</v>
       </c>
       <c r="O43" t="n">
         <v>100</v>
       </c>
       <c r="P43" t="n">
-        <v>76.08</v>
+        <v>75.38</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>95.09999999999999</v>
+        <v>94.23</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4405,17 +4405,17 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>KPU OKUS (656574)</t>
+          <t>KEMENAG OKU (418458)</t>
         </is>
       </c>
     </row>
@@ -4430,24 +4430,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>85.12</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>98.86</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -4456,36 +4456,36 @@
         <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>70.23999999999999</v>
+        <v>72.63</v>
       </c>
       <c r="K44" t="n">
-        <v>100</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>95.44</v>
+        <v>100</v>
       </c>
       <c r="O44" t="n">
         <v>100</v>
       </c>
       <c r="P44" t="n">
-        <v>95.08</v>
+        <v>75.36</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.08</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4497,17 +4497,17 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>BPN OKU (431142)</t>
+          <t>KEMENAG OKUT (666503)</t>
         </is>
       </c>
     </row>
@@ -4522,62 +4522,62 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>440504</t>
+          <t>692340</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>LAPAS KELAS II B MARTAPURA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>86.75</v>
+        <v>77.09</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>100</v>
       </c>
       <c r="I45" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J45" t="n">
-        <v>73.5</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>100</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>100</v>
+        <v>99.69</v>
       </c>
       <c r="O45" t="n">
         <v>100</v>
       </c>
       <c r="P45" t="n">
-        <v>76.03</v>
+        <v>93.95</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>95.03</v>
+        <v>93.95</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4589,17 +4589,17 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440504)</t>
+          <t>LAPAS MARTAPURA (692340)</t>
         </is>
       </c>
     </row>
@@ -4614,24 +4614,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>066</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>87.27</v>
+        <v>85.34</v>
       </c>
       <c r="G46" t="n">
-        <v>97.89</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>100</v>
@@ -4640,36 +4640,36 @@
         <v>100</v>
       </c>
       <c r="J46" t="n">
-        <v>74.54000000000001</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>96.16</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
-        <v>95.55</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>99.84</v>
+        <v>95.37</v>
       </c>
       <c r="O46" t="n">
         <v>100</v>
       </c>
       <c r="P46" t="n">
-        <v>94.95</v>
+        <v>75.14</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>94.95</v>
+        <v>93.92</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT (426066)</t>
+          <t>BNN OKUT (111079)</t>
         </is>
       </c>
     </row>
@@ -4711,19 +4711,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>553792</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>89</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>97.19</v>
+        <v>98.61</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -4732,10 +4732,10 @@
         <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>78</v>
+        <v>69.19</v>
       </c>
       <c r="K47" t="n">
-        <v>94.37</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4744,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>100</v>
+        <v>97.22</v>
       </c>
       <c r="O47" t="n">
         <v>100</v>
       </c>
       <c r="P47" t="n">
-        <v>75.56999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>94.47</v>
+        <v>93.88</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4773,17 +4773,17 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS (553792)</t>
+          <t>KEMENAG OKUT (666505)</t>
         </is>
       </c>
     </row>
@@ -4798,36 +4798,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>RUPBASAN KELAS II BATURAJA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>86.06999999999999</v>
+        <v>85.28</v>
       </c>
       <c r="G48" t="n">
-        <v>99.92</v>
+        <v>96.28</v>
       </c>
       <c r="H48" t="n">
-        <v>94.45</v>
+        <v>100</v>
       </c>
       <c r="I48" t="n">
         <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>72.13</v>
+        <v>70.55</v>
       </c>
       <c r="K48" t="n">
-        <v>100</v>
+        <v>95.12</v>
       </c>
       <c r="L48" t="n">
         <v>100</v>
@@ -4836,13 +4836,13 @@
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>99.69</v>
+        <v>90</v>
       </c>
       <c r="O48" t="n">
-        <v>94.45</v>
+        <v>100</v>
       </c>
       <c r="P48" t="n">
-        <v>94.40000000000001</v>
+        <v>93.61</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>94.40000000000001</v>
+        <v>93.61</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>MAN 1 OKU (424245)</t>
+          <t>RUPBASAN BATURAJA (692725)</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>418459</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>88.69</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>95.83</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
@@ -4916,10 +4916,10 @@
         <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>77.37</v>
+        <v>65.92</v>
       </c>
       <c r="K49" t="n">
-        <v>96.13</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4928,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>95.52</v>
+        <v>100</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
       </c>
       <c r="P49" t="n">
-        <v>75.38</v>
+        <v>74.89</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>94.23</v>
+        <v>93.61</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418458)</t>
+          <t>KEMENAG OKU (418459)</t>
         </is>
       </c>
     </row>
@@ -4982,24 +4982,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>686503</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>86.31999999999999</v>
+        <v>84.27</v>
       </c>
       <c r="G50" t="n">
-        <v>98.68000000000001</v>
+        <v>97.36</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -5008,10 +5008,10 @@
         <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>72.63</v>
+        <v>68.53</v>
       </c>
       <c r="K50" t="n">
-        <v>97.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -5020,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>100</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
       </c>
       <c r="P50" t="n">
-        <v>75.36</v>
+        <v>74.75</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>94.20999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666503)</t>
+          <t>BAWASLU OKUS (686503)</t>
         </is>
       </c>
     </row>
@@ -5074,36 +5074,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>692340</t>
+          <t>419006</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MARTAPURA</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>77.09</v>
+        <v>82.31</v>
       </c>
       <c r="G51" t="n">
-        <v>99.73999999999999</v>
+        <v>96.84</v>
       </c>
       <c r="H51" t="n">
         <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J51" t="n">
-        <v>74.18000000000001</v>
+        <v>64.62</v>
       </c>
       <c r="K51" t="n">
-        <v>99.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>100</v>
@@ -5112,13 +5112,13 @@
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>99.69</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="O51" t="n">
         <v>100</v>
       </c>
       <c r="P51" t="n">
-        <v>93.95</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>93.95</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA (692340)</t>
+          <t>BAWASLU OKU (419006)</t>
         </is>
       </c>
     </row>
@@ -5166,24 +5166,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>066</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>111079</t>
+          <t>666501</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>85.34</v>
+        <v>85.67</v>
       </c>
       <c r="G52" t="n">
-        <v>97.68000000000001</v>
+        <v>95.27</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
@@ -5192,7 +5192,7 @@
         <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>70.68000000000001</v>
+        <v>71.33</v>
       </c>
       <c r="K52" t="n">
         <v>100</v>
@@ -5204,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>95.37</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
       </c>
       <c r="P52" t="n">
-        <v>75.14</v>
+        <v>74.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>93.92</v>
+        <v>92.44</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5233,17 +5233,17 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>BNN OKUT (111079)</t>
+          <t>KEMENAG OKUT (666501)</t>
         </is>
       </c>
     </row>
@@ -5258,24 +5258,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>012</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>344894</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>84.59999999999999</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>98.61</v>
+        <v>95.42</v>
       </c>
       <c r="H53" t="n">
         <v>100</v>
@@ -5284,36 +5284,36 @@
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>69.19</v>
+        <v>61.14</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
+        <v>98.94</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>97.22</v>
+        <v>98.75</v>
       </c>
       <c r="O53" t="n">
         <v>100</v>
       </c>
       <c r="P53" t="n">
-        <v>75.09999999999999</v>
+        <v>92.23</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>93.88</v>
+        <v>92.23</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666505)</t>
+          <t>RUMKIT NOESMIR (344894)</t>
         </is>
       </c>
     </row>
@@ -5350,62 +5350,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>418459</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>82.95999999999999</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="I54" t="n">
         <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>65.92</v>
+        <v>92.7</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>100</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="O54" t="n">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="P54" t="n">
-        <v>74.89</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>93.61</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5417,17 +5417,17 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>PA  MUARADUA</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>PA  MUARADUA</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418459)</t>
+          <t>PA  MUARADUA (403410)</t>
         </is>
       </c>
     </row>
@@ -5442,36 +5442,36 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>692725</t>
+          <t>670561</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>RUPBASAN KELAS II BATURAJA</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>85.28</v>
+        <v>85.42</v>
       </c>
       <c r="G55" t="n">
-        <v>96.28</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>100</v>
+        <v>96.14</v>
       </c>
       <c r="I55" t="n">
         <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>70.55</v>
+        <v>70.83</v>
       </c>
       <c r="K55" t="n">
-        <v>95.12</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>100</v>
@@ -5480,13 +5480,13 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>90</v>
+        <v>70.16</v>
       </c>
       <c r="O55" t="n">
-        <v>100</v>
+        <v>96.14</v>
       </c>
       <c r="P55" t="n">
-        <v>93.61</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>93.61</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>BPN OKUS</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>BPN OKUS</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA (692725)</t>
+          <t>BPN OKUS (670561)</t>
         </is>
       </c>
     </row>
@@ -5534,24 +5534,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>099228</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>84.27</v>
+        <v>83.98</v>
       </c>
       <c r="G56" t="n">
-        <v>97.36</v>
+        <v>94.33</v>
       </c>
       <c r="H56" t="n">
         <v>100</v>
@@ -5560,10 +5560,10 @@
         <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>68.53</v>
+        <v>67.95</v>
       </c>
       <c r="K56" t="n">
-        <v>100</v>
+        <v>91.13</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5572,13 +5572,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>94.70999999999999</v>
+        <v>97.52</v>
       </c>
       <c r="O56" t="n">
         <v>100</v>
       </c>
       <c r="P56" t="n">
-        <v>74.75</v>
+        <v>73.17</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>93.44</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5601,17 +5601,17 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS (686503)</t>
+          <t>PN BATURAJA (099228)</t>
         </is>
       </c>
     </row>
@@ -5626,24 +5626,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>419006</t>
+          <t>666502</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>82.31</v>
+        <v>83.94</v>
       </c>
       <c r="G57" t="n">
-        <v>96.84</v>
+        <v>94.55</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
@@ -5652,36 +5652,36 @@
         <v>100</v>
       </c>
       <c r="J57" t="n">
-        <v>64.62</v>
+        <v>67.88</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>87.34999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="O57" t="n">
         <v>100</v>
       </c>
       <c r="P57" t="n">
-        <v>93.43000000000001</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>93.43000000000001</v>
+        <v>91.34</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5693,17 +5693,17 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>BAWASLU OKU (419006)</t>
+          <t>KEMENAG OKUT (666502)</t>
         </is>
       </c>
     </row>
@@ -5723,19 +5723,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>666501</t>
+          <t>418457</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>85.67</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>95.27</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -5744,10 +5744,10 @@
         <v>100</v>
       </c>
       <c r="J58" t="n">
-        <v>71.33</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>87.53</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5756,13 +5756,13 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>90.54000000000001</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="O58" t="n">
         <v>100</v>
       </c>
       <c r="P58" t="n">
-        <v>74.75</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>92.44</v>
+        <v>90.81</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666501)</t>
+          <t>KEMENAG OKU (418457)</t>
         </is>
       </c>
     </row>
@@ -5810,24 +5810,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>344894</t>
+          <t>418461</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>80.56999999999999</v>
+        <v>81.81</v>
       </c>
       <c r="G59" t="n">
-        <v>95.42</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>100</v>
@@ -5836,36 +5836,36 @@
         <v>100</v>
       </c>
       <c r="J59" t="n">
-        <v>61.14</v>
+        <v>63.62</v>
       </c>
       <c r="K59" t="n">
-        <v>98.94</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>98.75</v>
+        <v>96.81</v>
       </c>
       <c r="O59" t="n">
         <v>100</v>
       </c>
       <c r="P59" t="n">
-        <v>92.23</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>92.23</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5877,17 +5877,17 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR (344894)</t>
+          <t>KEMENAG OKU (418461)</t>
         </is>
       </c>
     </row>
@@ -5902,62 +5902,62 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>403410</t>
+          <t>691653</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>96.34999999999999</v>
+        <v>75.84</v>
       </c>
       <c r="G60" t="n">
-        <v>98.01000000000001</v>
+        <v>66.83</v>
       </c>
       <c r="H60" t="n">
-        <v>76.67</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
         <v>100</v>
       </c>
       <c r="J60" t="n">
-        <v>92.7</v>
+        <v>51.67</v>
       </c>
       <c r="K60" t="n">
-        <v>98.2</v>
+        <v>50.49</v>
       </c>
       <c r="L60" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>93.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>76.67</v>
+        <v>100</v>
       </c>
       <c r="P60" t="n">
-        <v>92.09999999999999</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>92.09999999999999</v>
+        <v>75.39</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5969,17 +5969,17 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>DISNAKERTRANS OKUT</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>DISNAKERTRANS OKUT</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>PA  MUARADUA (403410)</t>
+          <t>DISNAKERTRANS OKUT (691653)</t>
         </is>
       </c>
     </row>
@@ -5994,36 +5994,36 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>670561</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>POLRES OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>85.42</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>92.54000000000001</v>
+        <v>99.83</v>
       </c>
       <c r="H61" t="n">
-        <v>96.14</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>70.83</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="L61" t="n">
         <v>100</v>
@@ -6032,13 +6032,13 @@
         <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>70.16</v>
+        <v>100</v>
       </c>
       <c r="O61" t="n">
-        <v>96.14</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>91.68000000000001</v>
+        <v>74.86</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>91.68000000000001</v>
+        <v>74.86</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6061,17 +6061,17 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>POLRES OKUS</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>POLRES OKUS</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>BPN OKUS (670561)</t>
+          <t>POLRES OKUS (665307)</t>
         </is>
       </c>
     </row>
@@ -6086,62 +6086,62 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>099228</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>83.98</v>
+        <v>89.56</v>
       </c>
       <c r="G62" t="n">
-        <v>94.33</v>
+        <v>99.69</v>
       </c>
       <c r="H62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>100</v>
       </c>
       <c r="J62" t="n">
-        <v>67.95</v>
+        <v>79.11</v>
       </c>
       <c r="K62" t="n">
-        <v>91.13</v>
+        <v>100</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>97.52</v>
+        <v>98.77</v>
       </c>
       <c r="O62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>73.17</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>91.45999999999999</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -6153,17 +6153,17 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>PN BATURAJA (099228)</t>
+          <t>KEJARI OKUS (007208)</t>
         </is>
       </c>
     </row>
@@ -6178,62 +6178,62 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>666502</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>83.94</v>
+        <v>93.44</v>
       </c>
       <c r="G63" t="n">
-        <v>94.55</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>100</v>
       </c>
       <c r="J63" t="n">
-        <v>67.88</v>
+        <v>86.87</v>
       </c>
       <c r="K63" t="n">
-        <v>89.79000000000001</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>93.33</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>99.3</v>
+        <v>92.63</v>
       </c>
       <c r="O63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>73.06999999999999</v>
+        <v>71.63</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>91.34</v>
+        <v>71.63</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -6245,17 +6245,17 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666502)</t>
+          <t>KPU OKU (656553)</t>
         </is>
       </c>
     </row>
@@ -6270,62 +6270,62 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>418457</t>
+          <t>007190</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>86.90000000000001</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>89.15000000000001</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
       </c>
       <c r="J64" t="n">
-        <v>73.79000000000001</v>
+        <v>74.91</v>
       </c>
       <c r="K64" t="n">
-        <v>87.53</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>90.76000000000001</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="O64" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>72.65000000000001</v>
+        <v>71.13</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>90.81</v>
+        <v>71.13</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -6337,17 +6337,17 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418457)</t>
+          <t>KEJARI OKUT (007190)</t>
         </is>
       </c>
     </row>
@@ -6362,62 +6362,62 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>574370</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>79.93000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="G65" t="n">
-        <v>94.29000000000001</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>100</v>
       </c>
       <c r="J65" t="n">
-        <v>59.85</v>
+        <v>81.59</v>
       </c>
       <c r="K65" t="n">
-        <v>96.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>93.33</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>92.31</v>
+        <v>93.69</v>
       </c>
       <c r="O65" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>72.45999999999999</v>
+        <v>70.94</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>90.58</v>
+        <v>70.94</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6429,17 +6429,17 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS (574370)</t>
+          <t>KPU OKUT (656560)</t>
         </is>
       </c>
     </row>
@@ -6454,36 +6454,36 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>418461</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>81.81</v>
+        <v>91.06</v>
       </c>
       <c r="G66" t="n">
-        <v>87.20999999999999</v>
+        <v>93.83</v>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>100</v>
       </c>
       <c r="J66" t="n">
-        <v>63.62</v>
+        <v>82.12</v>
       </c>
       <c r="K66" t="n">
-        <v>77.59999999999999</v>
+        <v>99.95</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>96.81</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="O66" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>69.73999999999999</v>
+        <v>51.08</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>87.18000000000001</v>
+        <v>63.85</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6521,17 +6521,17 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418461)</t>
+          <t>KPU OKUS (656574)</t>
         </is>
       </c>
     </row>
@@ -6546,62 +6546,62 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>691653</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>75.84</v>
+        <v>87.73</v>
       </c>
       <c r="G67" t="n">
-        <v>66.83</v>
+        <v>98.56</v>
       </c>
       <c r="H67" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>51.67</v>
+        <v>75.45</v>
       </c>
       <c r="K67" t="n">
-        <v>50.49</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>97.12</v>
       </c>
       <c r="O67" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>67.84999999999999</v>
+        <v>51.03</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>75.39</v>
+        <v>63.79</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6613,17 +6613,17 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT (691653)</t>
+          <t>MTSN 1 OKU (426050)</t>
         </is>
       </c>
     </row>
@@ -6643,19 +6643,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>666507</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>87.73</v>
+        <v>90.12</v>
       </c>
       <c r="G68" t="n">
-        <v>98.56</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6664,10 +6664,10 @@
         <v>100</v>
       </c>
       <c r="J68" t="n">
-        <v>75.45</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6676,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>97.12</v>
+        <v>88.48</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>51.03</v>
+        <v>48.88</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>63.79</v>
+        <v>61.11</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6705,17 +6705,17 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>KEMENAG OKUT (666507)</t>
         </is>
       </c>
     </row>
@@ -6735,19 +6735,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>666507</t>
+          <t>574370</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>90.12</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>89.23999999999999</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>100</v>
       </c>
       <c r="J69" t="n">
-        <v>80.23999999999999</v>
+        <v>59.85</v>
       </c>
       <c r="K69" t="n">
-        <v>90</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6768,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>88.48</v>
+        <v>92.31</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>48.88</v>
+        <v>47.46</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>61.11</v>
+        <v>59.33</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 3 OKUS</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 3 OKUS</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666507)</t>
+          <t>MTSN 3 OKUS (574370)</t>
         </is>
       </c>
     </row>

--- a/data/IKPA_DESEMBER_2025.xlsx
+++ b/data/IKPA_DESEMBER_2025.xlsx
@@ -1578,24 +1578,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>POLRES OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>99.69</v>
+        <v>99.83</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -1607,7 +1607,7 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>98.75</v>
+        <v>99.3</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
@@ -1622,7 +1622,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="n">
-        <v>99.75</v>
+        <v>99.86</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>99.75</v>
+        <v>99.86</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1645,17 +1645,17 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>BPS OKUS</t>
+          <t>POLRES OKUS</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>BPS OKUS</t>
+          <t>POLRES OKUS</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>BPS OKUS (667215)</t>
+          <t>POLRES OKUS (665307)</t>
         </is>
       </c>
     </row>
@@ -1670,24 +1670,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>054</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>440506</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>97.13</v>
+        <v>99.69</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -1699,33 +1699,33 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>98.75</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>94.25</v>
+        <v>100</v>
       </c>
       <c r="O14" t="n">
         <v>100</v>
       </c>
       <c r="P14" t="n">
-        <v>79.43000000000001</v>
+        <v>99.75</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>99.28</v>
+        <v>99.75</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1737,17 +1737,17 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BPS OKUS</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BPS OKUS</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440506)</t>
+          <t>BPS OKUS (667215)</t>
         </is>
       </c>
     </row>
@@ -1762,24 +1762,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>692625</t>
+          <t>440506</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BAPAS KELAS II OKU INDUK</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>97.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>99.69</v>
+        <v>97.13</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
@@ -1788,10 +1788,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="n">
-        <v>94.08</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>99.38</v>
+        <v>100</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>100</v>
+        <v>94.25</v>
       </c>
       <c r="O15" t="n">
         <v>100</v>
       </c>
       <c r="P15" t="n">
-        <v>78.98999999999999</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>98.73999999999999</v>
+        <v>99.28</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1829,17 +1829,17 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK (692625)</t>
+          <t>KEMENAG OKUS (440506)</t>
         </is>
       </c>
     </row>
@@ -1854,24 +1854,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>641681</t>
+          <t>692625</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU</t>
+          <t>BAPAS KELAS II OKU INDUK</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>95.01000000000001</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>99.98</v>
+        <v>99.69</v>
       </c>
       <c r="H16" t="n">
         <v>100</v>
@@ -1880,36 +1880,36 @@
         <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>90.02</v>
+        <v>94.08</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>99.38</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>99.93000000000001</v>
+        <v>100</v>
       </c>
       <c r="O16" t="n">
         <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>98.5</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>98.5</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1921,17 +1921,17 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>POLRES OKU</t>
+          <t>BAPAS OKU INDUK</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>POLRES OKU</t>
+          <t>BAPAS OKU INDUK</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>POLRES OKU (641681)</t>
+          <t>BAPAS OKU INDUK (692625)</t>
         </is>
       </c>
     </row>
@@ -1946,24 +1946,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>401945</t>
+          <t>641681</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>POLRES OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>93.20999999999999</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>99.95</v>
+        <v>99.98</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -1972,7 +1972,7 @@
         <v>100</v>
       </c>
       <c r="J17" t="n">
-        <v>86.42</v>
+        <v>90.02</v>
       </c>
       <c r="K17" t="n">
         <v>100</v>
@@ -1984,13 +1984,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>99.79000000000001</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="O17" t="n">
         <v>100</v>
       </c>
       <c r="P17" t="n">
-        <v>97.94</v>
+        <v>98.5</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.94</v>
+        <v>98.5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2013,17 +2013,17 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>PA MUARADUA</t>
+          <t>POLRES OKU</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>PA MUARADUA</t>
+          <t>POLRES OKU</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>PA MUARADUA (401945)</t>
+          <t>POLRES OKU (641681)</t>
         </is>
       </c>
     </row>
@@ -2038,24 +2038,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU TIMUR</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>91.5</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>99.95</v>
       </c>
       <c r="H18" t="n">
         <v>100</v>
@@ -2064,10 +2064,10 @@
         <v>100</v>
       </c>
       <c r="J18" t="n">
-        <v>82.98999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="K18" t="n">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
@@ -2076,13 +2076,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>100</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="O18" t="n">
         <v>100</v>
       </c>
       <c r="P18" t="n">
-        <v>97.45</v>
+        <v>97.94</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>97.45</v>
+        <v>97.94</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2105,17 +2105,17 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>PA MUARADUA</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>PA MUARADUA</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>POLRES OKUT (665292)</t>
+          <t>PA MUARADUA (401945)</t>
         </is>
       </c>
     </row>
@@ -2222,24 +2222,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>597480</t>
+          <t>665292</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
+          <t>POLRES OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>94.38</v>
+        <v>91.5</v>
       </c>
       <c r="G20" t="n">
-        <v>97.89</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -2248,36 +2248,36 @@
         <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>88.75</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>95.77</v>
+        <v>100</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
       </c>
       <c r="P20" t="n">
-        <v>77.89</v>
+        <v>97.45</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.36</v>
+        <v>97.45</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2289,17 +2289,17 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT (597480)</t>
+          <t>POLRES OKUT (665292)</t>
         </is>
       </c>
     </row>
@@ -2314,24 +2314,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>597480</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>92.09</v>
+        <v>94.38</v>
       </c>
       <c r="G21" t="n">
-        <v>98.92</v>
+        <v>97.89</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
@@ -2340,36 +2340,36 @@
         <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>84.17</v>
+        <v>88.75</v>
       </c>
       <c r="K21" t="n">
-        <v>99.68000000000001</v>
+        <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>100</v>
+        <v>95.77</v>
       </c>
       <c r="O21" t="n">
         <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>97.16</v>
+        <v>77.89</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>97.16</v>
+        <v>97.36</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2381,17 +2381,17 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>KEJARI  OKU</t>
+          <t>MTSN 4 OKUT</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>KEJARI  OKU</t>
+          <t>MTSN 4 OKUT</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>KEJARI  OKU (007130)</t>
+          <t>MTSN 4 OKUT (597480)</t>
         </is>
       </c>
     </row>
@@ -2406,24 +2406,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>95.7</v>
+        <v>92.09</v>
       </c>
       <c r="G22" t="n">
-        <v>97.33</v>
+        <v>98.92</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -2432,16 +2432,16 @@
         <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>91.39</v>
+        <v>84.17</v>
       </c>
       <c r="K22" t="n">
-        <v>94.66</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
         <v>100</v>
@@ -2450,18 +2450,18 @@
         <v>100</v>
       </c>
       <c r="P22" t="n">
-        <v>77.64</v>
+        <v>97.16</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>97.05</v>
+        <v>97.16</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2473,17 +2473,17 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEJARI  OKU</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEJARI  OKU</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440503)</t>
+          <t>KEJARI  OKU (007130)</t>
         </is>
       </c>
     </row>
@@ -2503,19 +2503,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>418456</t>
+          <t>440503</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>92.08</v>
+        <v>95.7</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>97.33</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -2524,10 +2524,10 @@
         <v>100</v>
       </c>
       <c r="J23" t="n">
-        <v>84.16</v>
+        <v>91.39</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>94.66</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="n">
-        <v>77.62</v>
+        <v>77.64</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.03</v>
+        <v>97.05</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2565,17 +2565,17 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418456)</t>
+          <t>KEMENAG OKUS (440503)</t>
         </is>
       </c>
     </row>
@@ -2595,19 +2595,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>93.45999999999999</v>
+        <v>92.08</v>
       </c>
       <c r="G24" t="n">
-        <v>97.66</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -2616,7 +2616,7 @@
         <v>100</v>
       </c>
       <c r="J24" t="n">
-        <v>86.91</v>
+        <v>84.16</v>
       </c>
       <c r="K24" t="n">
         <v>100</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>95.31</v>
+        <v>100</v>
       </c>
       <c r="O24" t="n">
         <v>100</v>
       </c>
       <c r="P24" t="n">
-        <v>77.56999999999999</v>
+        <v>77.62</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>96.95999999999999</v>
+        <v>97.03</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2657,17 +2657,17 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT (553099)</t>
+          <t>KEMENAG OKU (418456)</t>
         </is>
       </c>
     </row>
@@ -2687,19 +2687,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>91.65000000000001</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>99.63</v>
+        <v>97.66</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
@@ -2708,10 +2708,10 @@
         <v>100</v>
       </c>
       <c r="J25" t="n">
-        <v>83.29000000000001</v>
+        <v>86.91</v>
       </c>
       <c r="K25" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2720,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>99.76000000000001</v>
+        <v>95.31</v>
       </c>
       <c r="O25" t="n">
         <v>100</v>
       </c>
       <c r="P25" t="n">
-        <v>77.37</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.70999999999999</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2749,17 +2749,17 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>MTSN 3 OKUT</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>MTSN 3 OKUT</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS (418462)</t>
+          <t>MTSN 3 OKUT (553099)</t>
         </is>
       </c>
     </row>
@@ -2779,19 +2779,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>111071</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>91.14</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>99.63</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -2800,10 +2800,10 @@
         <v>100</v>
       </c>
       <c r="J26" t="n">
-        <v>82.28</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2812,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>100</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="O26" t="n">
         <v>100</v>
       </c>
       <c r="P26" t="n">
-        <v>77.34</v>
+        <v>77.37</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.68000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (111071)</t>
+          <t>MTSN 2 OKUS (418462)</t>
         </is>
       </c>
     </row>
@@ -2866,24 +2866,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>692334</t>
+          <t>111071</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MUARA DUA</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>88.26000000000001</v>
+        <v>91.14</v>
       </c>
       <c r="G27" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -2892,16 +2892,16 @@
         <v>100</v>
       </c>
       <c r="J27" t="n">
-        <v>76.51000000000001</v>
+        <v>82.28</v>
       </c>
       <c r="K27" t="n">
-        <v>99.59</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>100</v>
@@ -2910,18 +2910,18 @@
         <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>96.39</v>
+        <v>77.34</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>96.39</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2933,17 +2933,17 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA (692334)</t>
+          <t>KEMENAG OKUT (111071)</t>
         </is>
       </c>
     </row>
@@ -2958,24 +2958,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>89.92</v>
+        <v>93.44</v>
       </c>
       <c r="G28" t="n">
-        <v>99.94</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>100</v>
@@ -2984,36 +2984,36 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>79.84</v>
+        <v>86.87</v>
       </c>
       <c r="K28" t="n">
         <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>93.33</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>99.88</v>
+        <v>92.63</v>
       </c>
       <c r="O28" t="n">
         <v>100</v>
       </c>
       <c r="P28" t="n">
-        <v>76.95999999999999</v>
+        <v>96.63</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.20999999999999</v>
+        <v>96.63</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS (661192)</t>
+          <t>KPU OKU (656553)</t>
         </is>
       </c>
     </row>
@@ -3050,24 +3050,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
+          <t>LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>91.73999999999999</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>96.89</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -3076,10 +3076,10 @@
         <v>100</v>
       </c>
       <c r="J29" t="n">
-        <v>83.47</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>99.20999999999999</v>
+        <v>99.59</v>
       </c>
       <c r="L29" t="n">
         <v>100</v>
@@ -3088,13 +3088,13 @@
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>88.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="O29" t="n">
         <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>96.2</v>
+        <v>96.39</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.2</v>
+        <v>96.39</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3117,17 +3117,17 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>BPN OKUT (669055)</t>
+          <t>LAPAS MUARA DUA (692334)</t>
         </is>
       </c>
     </row>
@@ -3147,19 +3147,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>94.62</v>
+        <v>89.92</v>
       </c>
       <c r="G30" t="n">
-        <v>95.44</v>
+        <v>99.94</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>89.23</v>
+        <v>79.84</v>
       </c>
       <c r="K30" t="n">
-        <v>94.78</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3180,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>96.09</v>
+        <v>99.88</v>
       </c>
       <c r="O30" t="n">
         <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>76.95</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>96.19</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666504)</t>
+          <t>MTSN 4 OKUS (661192)</t>
         </is>
       </c>
     </row>
@@ -3239,19 +3239,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>90.66</v>
+        <v>94.62</v>
       </c>
       <c r="G31" t="n">
-        <v>98.04000000000001</v>
+        <v>95.44</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -3260,10 +3260,10 @@
         <v>100</v>
       </c>
       <c r="J31" t="n">
-        <v>81.31999999999999</v>
+        <v>89.23</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
+        <v>94.78</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>96.08</v>
+        <v>96.09</v>
       </c>
       <c r="O31" t="n">
         <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>76.81</v>
+        <v>76.95</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.01000000000001</v>
+        <v>96.19</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440502)</t>
+          <t>KEMENAG OKUT (666504)</t>
         </is>
       </c>
     </row>
@@ -3326,24 +3326,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>007190</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>89.28</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -3352,36 +3352,36 @@
         <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>78.55</v>
+        <v>74.91</v>
       </c>
       <c r="K32" t="n">
         <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="O32" t="n">
         <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>76.78</v>
+        <v>96.13</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>95.98</v>
+        <v>96.13</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS (662127)</t>
+          <t>KEJARI OKUT (007190)</t>
         </is>
       </c>
     </row>
@@ -3423,19 +3423,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>424967</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>90.04000000000001</v>
+        <v>90.66</v>
       </c>
       <c r="G33" t="n">
-        <v>98.70999999999999</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -3444,36 +3444,36 @@
         <v>100</v>
       </c>
       <c r="J33" t="n">
-        <v>80.08</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>94.83</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>100</v>
+        <v>96.08</v>
       </c>
       <c r="O33" t="n">
         <v>100</v>
       </c>
       <c r="P33" t="n">
-        <v>95.98</v>
+        <v>76.81</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>95.98</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT (424967)</t>
+          <t>KEMENAG OKUS (440502)</t>
         </is>
       </c>
     </row>
@@ -3515,16 +3515,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>88.92</v>
+        <v>89.28</v>
       </c>
       <c r="G34" t="n">
         <v>100</v>
@@ -3536,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="J34" t="n">
-        <v>77.84</v>
+        <v>78.55</v>
       </c>
       <c r="K34" t="n">
         <v>100</v>
@@ -3554,7 +3554,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>76.68000000000001</v>
+        <v>76.78</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>95.84999999999999</v>
+        <v>95.98</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT (418471)</t>
+          <t>MAN 1 OKUS (662127)</t>
         </is>
       </c>
     </row>
@@ -3602,24 +3602,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>424967</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>85.95999999999999</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -3628,10 +3628,10 @@
         <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>71.91</v>
+        <v>80.08</v>
       </c>
       <c r="K35" t="n">
-        <v>100</v>
+        <v>94.83</v>
       </c>
       <c r="L35" t="n">
         <v>100</v>
@@ -3646,7 +3646,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="n">
-        <v>95.79000000000001</v>
+        <v>95.98</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.79000000000001</v>
+        <v>95.98</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3669,17 +3669,17 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>PN BATURAJA (098963)</t>
+          <t>MTSN 1 OKUT (424967)</t>
         </is>
       </c>
     </row>
@@ -3694,24 +3694,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>89.20999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="G36" t="n">
-        <v>98.42</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>100</v>
@@ -3720,36 +3720,36 @@
         <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>78.41</v>
+        <v>81.59</v>
       </c>
       <c r="K36" t="n">
         <v>100</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>93.33</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>96.83</v>
+        <v>93.69</v>
       </c>
       <c r="O36" t="n">
         <v>100</v>
       </c>
       <c r="P36" t="n">
-        <v>76.44</v>
+        <v>95.94</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>95.56</v>
+        <v>95.94</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS (597558)</t>
+          <t>KPU OKUT (656560)</t>
         </is>
       </c>
     </row>
@@ -3786,24 +3786,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>418471</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>90.33</v>
+        <v>88.92</v>
       </c>
       <c r="G37" t="n">
-        <v>97.31999999999999</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -3812,36 +3812,36 @@
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>80.66</v>
+        <v>77.84</v>
       </c>
       <c r="K37" t="n">
-        <v>93.77</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>95.51000000000001</v>
+        <v>100</v>
       </c>
       <c r="O37" t="n">
         <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>95.40000000000001</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.40000000000001</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3853,17 +3853,17 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS (690801)</t>
+          <t>MTSN 2 OKUT (418471)</t>
         </is>
       </c>
     </row>
@@ -3878,24 +3878,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>85.12</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>98.86</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -3904,7 +3904,7 @@
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>70.23999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="K38" t="n">
         <v>100</v>
@@ -3916,13 +3916,13 @@
         <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>95.44</v>
+        <v>100</v>
       </c>
       <c r="O38" t="n">
         <v>100</v>
       </c>
       <c r="P38" t="n">
-        <v>95.08</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.08</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>BPN OKU (431142)</t>
+          <t>PN BATURAJA (098963)</t>
         </is>
       </c>
     </row>
@@ -3975,19 +3975,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>440504</t>
+          <t>597558</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>86.75</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>98.42</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
@@ -3996,7 +3996,7 @@
         <v>100</v>
       </c>
       <c r="J39" t="n">
-        <v>73.5</v>
+        <v>78.41</v>
       </c>
       <c r="K39" t="n">
         <v>100</v>
@@ -4008,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>100</v>
+        <v>96.83</v>
       </c>
       <c r="O39" t="n">
         <v>100</v>
       </c>
       <c r="P39" t="n">
-        <v>76.03</v>
+        <v>76.44</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>95.03</v>
+        <v>95.56</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440504)</t>
+          <t>MAN 2 OKUS (597558)</t>
         </is>
       </c>
     </row>
@@ -4062,24 +4062,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>87.27</v>
+        <v>90.33</v>
       </c>
       <c r="G40" t="n">
-        <v>97.89</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -4088,25 +4088,25 @@
         <v>100</v>
       </c>
       <c r="J40" t="n">
-        <v>74.54000000000001</v>
+        <v>80.66</v>
       </c>
       <c r="K40" t="n">
-        <v>96.16</v>
+        <v>93.77</v>
       </c>
       <c r="L40" t="n">
-        <v>95.55</v>
+        <v>100</v>
       </c>
       <c r="M40" t="n">
         <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>99.84</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="O40" t="n">
         <v>100</v>
       </c>
       <c r="P40" t="n">
-        <v>94.95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>94.95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4129,17 +4129,17 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT (426066)</t>
+          <t>LOKA LABKESMAS (690801)</t>
         </is>
       </c>
     </row>
@@ -4154,24 +4154,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>553792</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>89</v>
+        <v>91.06</v>
       </c>
       <c r="G41" t="n">
-        <v>97.19</v>
+        <v>93.83</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -4180,10 +4180,10 @@
         <v>100</v>
       </c>
       <c r="J41" t="n">
-        <v>78</v>
+        <v>82.12</v>
       </c>
       <c r="K41" t="n">
-        <v>94.37</v>
+        <v>99.95</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>100</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="O41" t="n">
         <v>100</v>
       </c>
       <c r="P41" t="n">
-        <v>75.56999999999999</v>
+        <v>76.08</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>94.47</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4221,17 +4221,17 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS (553792)</t>
+          <t>KPU OKUS (656574)</t>
         </is>
       </c>
     </row>
@@ -4246,33 +4246,33 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>86.06999999999999</v>
+        <v>85.12</v>
       </c>
       <c r="G42" t="n">
-        <v>99.92</v>
+        <v>98.86</v>
       </c>
       <c r="H42" t="n">
-        <v>94.45</v>
+        <v>100</v>
       </c>
       <c r="I42" t="n">
         <v>100</v>
       </c>
       <c r="J42" t="n">
-        <v>72.13</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="K42" t="n">
         <v>100</v>
@@ -4284,13 +4284,13 @@
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>99.69</v>
+        <v>95.44</v>
       </c>
       <c r="O42" t="n">
-        <v>94.45</v>
+        <v>100</v>
       </c>
       <c r="P42" t="n">
-        <v>94.40000000000001</v>
+        <v>95.08</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>94.40000000000001</v>
+        <v>95.08</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>MAN 1 OKU (424245)</t>
+          <t>BPN OKU (431142)</t>
         </is>
       </c>
     </row>
@@ -4343,19 +4343,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>88.69</v>
+        <v>87.73</v>
       </c>
       <c r="G43" t="n">
-        <v>95.83</v>
+        <v>98.56</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -4364,10 +4364,10 @@
         <v>100</v>
       </c>
       <c r="J43" t="n">
-        <v>77.37</v>
+        <v>75.45</v>
       </c>
       <c r="K43" t="n">
-        <v>96.13</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4376,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>95.52</v>
+        <v>97.12</v>
       </c>
       <c r="O43" t="n">
         <v>100</v>
       </c>
       <c r="P43" t="n">
-        <v>75.38</v>
+        <v>76.03</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>94.23</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4405,17 +4405,17 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418458)</t>
+          <t>MTSN 1 OKU (426050)</t>
         </is>
       </c>
     </row>
@@ -4435,19 +4435,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>440504</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>86.31999999999999</v>
+        <v>86.75</v>
       </c>
       <c r="G44" t="n">
-        <v>98.68000000000001</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -4456,10 +4456,10 @@
         <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>72.63</v>
+        <v>73.5</v>
       </c>
       <c r="K44" t="n">
-        <v>97.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="n">
-        <v>75.36</v>
+        <v>76.03</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>94.20999999999999</v>
+        <v>95.03</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4497,17 +4497,17 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666503)</t>
+          <t>KEMENAG OKUS (440504)</t>
         </is>
       </c>
     </row>
@@ -4522,51 +4522,51 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>692340</t>
+          <t>426066</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MARTAPURA</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>77.09</v>
+        <v>87.27</v>
       </c>
       <c r="G45" t="n">
-        <v>99.73999999999999</v>
+        <v>97.89</v>
       </c>
       <c r="H45" t="n">
         <v>100</v>
       </c>
       <c r="I45" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J45" t="n">
-        <v>74.18000000000001</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>99.29000000000001</v>
+        <v>96.16</v>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>95.55</v>
       </c>
       <c r="M45" t="n">
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>99.69</v>
+        <v>99.84</v>
       </c>
       <c r="O45" t="n">
         <v>100</v>
       </c>
       <c r="P45" t="n">
-        <v>93.95</v>
+        <v>94.95</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>93.95</v>
+        <v>94.95</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4589,17 +4589,17 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA (692340)</t>
+          <t>MAN 1 OKUT (426066)</t>
         </is>
       </c>
     </row>
@@ -4614,24 +4614,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>066</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>111079</t>
+          <t>553792</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>85.34</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68000000000001</v>
+        <v>97.19</v>
       </c>
       <c r="H46" t="n">
         <v>100</v>
@@ -4640,10 +4640,10 @@
         <v>100</v>
       </c>
       <c r="J46" t="n">
-        <v>70.68000000000001</v>
+        <v>78</v>
       </c>
       <c r="K46" t="n">
-        <v>100</v>
+        <v>94.37</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4652,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>95.37</v>
+        <v>100</v>
       </c>
       <c r="O46" t="n">
         <v>100</v>
       </c>
       <c r="P46" t="n">
-        <v>75.14</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>93.92</v>
+        <v>94.47</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>BNN OKUT (111079)</t>
+          <t>MTSN 1 OKUS (553792)</t>
         </is>
       </c>
     </row>
@@ -4711,19 +4711,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>84.59999999999999</v>
+        <v>88.69</v>
       </c>
       <c r="G47" t="n">
-        <v>98.61</v>
+        <v>95.83</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -4732,10 +4732,10 @@
         <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>69.19</v>
+        <v>77.37</v>
       </c>
       <c r="K47" t="n">
-        <v>100</v>
+        <v>96.13</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4744,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>97.22</v>
+        <v>95.52</v>
       </c>
       <c r="O47" t="n">
         <v>100</v>
       </c>
       <c r="P47" t="n">
-        <v>75.09999999999999</v>
+        <v>75.38</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>93.88</v>
+        <v>94.23</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4773,17 +4773,17 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666505)</t>
+          <t>KEMENAG OKU (418458)</t>
         </is>
       </c>
     </row>
@@ -4798,24 +4798,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>692725</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>RUPBASAN KELAS II BATURAJA</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>85.28</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>96.28</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>100</v>
@@ -4824,36 +4824,36 @@
         <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>70.55</v>
+        <v>72.63</v>
       </c>
       <c r="K48" t="n">
-        <v>95.12</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="L48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O48" t="n">
         <v>100</v>
       </c>
       <c r="P48" t="n">
-        <v>93.61</v>
+        <v>75.36</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>93.61</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA (692725)</t>
+          <t>KEMENAG OKUT (666503)</t>
         </is>
       </c>
     </row>
@@ -4890,62 +4890,62 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>418459</t>
+          <t>692340</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>LAPAS KELAS II B MARTAPURA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>82.95999999999999</v>
+        <v>77.09</v>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
       </c>
       <c r="I49" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J49" t="n">
-        <v>65.92</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>100</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>100</v>
+        <v>99.69</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
       </c>
       <c r="P49" t="n">
-        <v>74.89</v>
+        <v>93.95</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>93.61</v>
+        <v>93.95</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4957,17 +4957,17 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418459)</t>
+          <t>LAPAS MARTAPURA (692340)</t>
         </is>
       </c>
     </row>
@@ -4982,24 +4982,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>066</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>84.27</v>
+        <v>85.34</v>
       </c>
       <c r="G50" t="n">
-        <v>97.36</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -5008,7 +5008,7 @@
         <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>68.53</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="K50" t="n">
         <v>100</v>
@@ -5020,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>94.70999999999999</v>
+        <v>95.37</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
       </c>
       <c r="P50" t="n">
-        <v>74.75</v>
+        <v>75.14</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>93.44</v>
+        <v>93.92</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS (686503)</t>
+          <t>BNN OKUT (111079)</t>
         </is>
       </c>
     </row>
@@ -5074,24 +5074,24 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>419006</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>82.31</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>96.84</v>
+        <v>98.61</v>
       </c>
       <c r="H51" t="n">
         <v>100</v>
@@ -5100,36 +5100,36 @@
         <v>100</v>
       </c>
       <c r="J51" t="n">
-        <v>64.62</v>
+        <v>69.19</v>
       </c>
       <c r="K51" t="n">
         <v>100</v>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>87.34999999999999</v>
+        <v>97.22</v>
       </c>
       <c r="O51" t="n">
         <v>100</v>
       </c>
       <c r="P51" t="n">
-        <v>93.43000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>93.43000000000001</v>
+        <v>93.88</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>BAWASLU OKU (419006)</t>
+          <t>KEMENAG OKUT (666505)</t>
         </is>
       </c>
     </row>
@@ -5166,24 +5166,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>012</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>666501</t>
+          <t>344894</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>85.67</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>95.27</v>
+        <v>99.42</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
@@ -5192,36 +5192,36 @@
         <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>71.33</v>
+        <v>61.14</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
+        <v>98.94</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>90.54000000000001</v>
+        <v>98.75</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
       </c>
       <c r="P52" t="n">
-        <v>74.75</v>
+        <v>93.83</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>92.44</v>
+        <v>93.83</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5233,17 +5233,17 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666501)</t>
+          <t>RUMKIT NOESMIR (344894)</t>
         </is>
       </c>
     </row>
@@ -5258,51 +5258,51 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>344894</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>80.56999999999999</v>
+        <v>89.56</v>
       </c>
       <c r="G53" t="n">
-        <v>95.42</v>
+        <v>99.69</v>
       </c>
       <c r="H53" t="n">
-        <v>100</v>
+        <v>87.83</v>
       </c>
       <c r="I53" t="n">
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>61.14</v>
+        <v>79.11</v>
       </c>
       <c r="K53" t="n">
-        <v>98.94</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>98.75</v>
+        <v>98.77</v>
       </c>
       <c r="O53" t="n">
-        <v>100</v>
+        <v>87.83</v>
       </c>
       <c r="P53" t="n">
-        <v>92.23</v>
+        <v>93.7</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>92.23</v>
+        <v>93.7</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR (344894)</t>
+          <t>KEJARI OKUS (007208)</t>
         </is>
       </c>
     </row>
@@ -5350,62 +5350,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>403410</t>
+          <t>418459</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>96.34999999999999</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>98.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H54" t="n">
-        <v>76.67</v>
+        <v>100</v>
       </c>
       <c r="I54" t="n">
         <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>92.7</v>
+        <v>65.92</v>
       </c>
       <c r="K54" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>93.84999999999999</v>
+        <v>100</v>
       </c>
       <c r="O54" t="n">
-        <v>76.67</v>
+        <v>100</v>
       </c>
       <c r="P54" t="n">
-        <v>92.09999999999999</v>
+        <v>74.89</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>92.09999999999999</v>
+        <v>93.61</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5417,17 +5417,17 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>PA  MUARADUA (403410)</t>
+          <t>KEMENAG OKU (418459)</t>
         </is>
       </c>
     </row>
@@ -5442,36 +5442,36 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>670561</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>RUPBASAN KELAS II BATURAJA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>85.42</v>
+        <v>85.28</v>
       </c>
       <c r="G55" t="n">
-        <v>92.54000000000001</v>
+        <v>96.28</v>
       </c>
       <c r="H55" t="n">
-        <v>96.14</v>
+        <v>100</v>
       </c>
       <c r="I55" t="n">
         <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>70.83</v>
+        <v>70.55</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
+        <v>95.12</v>
       </c>
       <c r="L55" t="n">
         <v>100</v>
@@ -5480,13 +5480,13 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>70.16</v>
+        <v>90</v>
       </c>
       <c r="O55" t="n">
-        <v>96.14</v>
+        <v>100</v>
       </c>
       <c r="P55" t="n">
-        <v>91.68000000000001</v>
+        <v>93.61</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>91.68000000000001</v>
+        <v>93.61</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>BPN OKUS (670561)</t>
+          <t>RUPBASAN BATURAJA (692725)</t>
         </is>
       </c>
     </row>
@@ -5534,24 +5534,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>099228</t>
+          <t>686503</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>83.98</v>
+        <v>84.27</v>
       </c>
       <c r="G56" t="n">
-        <v>94.33</v>
+        <v>97.36</v>
       </c>
       <c r="H56" t="n">
         <v>100</v>
@@ -5560,10 +5560,10 @@
         <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>67.95</v>
+        <v>68.53</v>
       </c>
       <c r="K56" t="n">
-        <v>91.13</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5572,13 +5572,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>97.52</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="O56" t="n">
         <v>100</v>
       </c>
       <c r="P56" t="n">
-        <v>73.17</v>
+        <v>74.75</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>91.45999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5601,17 +5601,17 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>PN BATURAJA (099228)</t>
+          <t>BAWASLU OKUS (686503)</t>
         </is>
       </c>
     </row>
@@ -5626,24 +5626,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>666502</t>
+          <t>419006</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>83.94</v>
+        <v>82.31</v>
       </c>
       <c r="G57" t="n">
-        <v>94.55</v>
+        <v>96.84</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
@@ -5652,36 +5652,36 @@
         <v>100</v>
       </c>
       <c r="J57" t="n">
-        <v>67.88</v>
+        <v>64.62</v>
       </c>
       <c r="K57" t="n">
-        <v>89.79000000000001</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>99.3</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="O57" t="n">
         <v>100</v>
       </c>
       <c r="P57" t="n">
-        <v>73.06999999999999</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>91.34</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5693,17 +5693,17 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666502)</t>
+          <t>BAWASLU OKU (419006)</t>
         </is>
       </c>
     </row>
@@ -5723,19 +5723,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>418457</t>
+          <t>666501</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>86.90000000000001</v>
+        <v>85.67</v>
       </c>
       <c r="G58" t="n">
-        <v>89.15000000000001</v>
+        <v>95.27</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -5744,10 +5744,10 @@
         <v>100</v>
       </c>
       <c r="J58" t="n">
-        <v>73.79000000000001</v>
+        <v>71.33</v>
       </c>
       <c r="K58" t="n">
-        <v>87.53</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5756,13 +5756,13 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>90.76000000000001</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="O58" t="n">
         <v>100</v>
       </c>
       <c r="P58" t="n">
-        <v>72.65000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>90.81</v>
+        <v>92.44</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418457)</t>
+          <t>KEMENAG OKUT (666501)</t>
         </is>
       </c>
     </row>
@@ -5815,19 +5815,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>418461</t>
+          <t>666507</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>81.81</v>
+        <v>90.12</v>
       </c>
       <c r="G59" t="n">
-        <v>87.20999999999999</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>100</v>
@@ -5836,10 +5836,10 @@
         <v>100</v>
       </c>
       <c r="J59" t="n">
-        <v>63.62</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>77.59999999999999</v>
+        <v>90</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -5848,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>96.81</v>
+        <v>88.48</v>
       </c>
       <c r="O59" t="n">
         <v>100</v>
       </c>
       <c r="P59" t="n">
-        <v>69.73999999999999</v>
+        <v>73.88</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>87.18000000000001</v>
+        <v>92.36</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5877,17 +5877,17 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418461)</t>
+          <t>KEMENAG OKUT (666507)</t>
         </is>
       </c>
     </row>
@@ -5902,62 +5902,62 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>691653</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>75.84</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>66.83</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="I60" t="n">
         <v>100</v>
       </c>
       <c r="J60" t="n">
-        <v>51.67</v>
+        <v>92.7</v>
       </c>
       <c r="K60" t="n">
-        <v>50.49</v>
+        <v>98.2</v>
       </c>
       <c r="L60" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="O60" t="n">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="P60" t="n">
-        <v>67.84999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>75.39</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5969,17 +5969,17 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT</t>
+          <t>PA  MUARADUA</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT</t>
+          <t>PA  MUARADUA</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>DISNAKERTRANS OKUT (691653)</t>
+          <t>PA  MUARADUA (403410)</t>
         </is>
       </c>
     </row>
@@ -5994,36 +5994,36 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>665307</t>
+          <t>670561</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>85.42</v>
       </c>
       <c r="G61" t="n">
-        <v>99.83</v>
+        <v>92.55</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>96.14</v>
       </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>70.83</v>
       </c>
       <c r="K61" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
         <v>100</v>
@@ -6032,13 +6032,13 @@
         <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>100</v>
+        <v>70.19</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>96.14</v>
       </c>
       <c r="P61" t="n">
-        <v>74.86</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>74.86</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6061,17 +6061,17 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>POLRES OKUS</t>
+          <t>BPN OKUS</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>POLRES OKUS</t>
+          <t>BPN OKUS</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>POLRES OKUS (665307)</t>
+          <t>BPN OKUS (670561)</t>
         </is>
       </c>
     </row>
@@ -6086,62 +6086,62 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>007208</t>
+          <t>099228</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>89.56</v>
+        <v>83.98</v>
       </c>
       <c r="G62" t="n">
-        <v>99.69</v>
+        <v>94.33</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
         <v>100</v>
       </c>
       <c r="J62" t="n">
-        <v>79.11</v>
+        <v>67.95</v>
       </c>
       <c r="K62" t="n">
-        <v>100</v>
+        <v>91.13</v>
       </c>
       <c r="L62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>98.77</v>
+        <v>97.52</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" t="n">
-        <v>71.73999999999999</v>
+        <v>73.17</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>71.73999999999999</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -6153,17 +6153,17 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>KEJARI OKUS (007208)</t>
+          <t>PN BATURAJA (099228)</t>
         </is>
       </c>
     </row>
@@ -6178,62 +6178,62 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>656553</t>
+          <t>666502</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>93.44</v>
+        <v>83.94</v>
       </c>
       <c r="G63" t="n">
-        <v>96.48999999999999</v>
+        <v>94.55</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
         <v>100</v>
       </c>
       <c r="J63" t="n">
-        <v>86.87</v>
+        <v>67.88</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>92.63</v>
+        <v>99.3</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P63" t="n">
-        <v>71.63</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>71.63</v>
+        <v>91.34</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -6245,17 +6245,17 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>KPU OKU (656553)</t>
+          <t>KEMENAG OKUT (666502)</t>
         </is>
       </c>
     </row>
@@ -6270,62 +6270,62 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>007190</t>
+          <t>418457</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>87.45999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>99.73999999999999</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
       </c>
       <c r="J64" t="n">
-        <v>74.91</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>87.53</v>
       </c>
       <c r="L64" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>98.95999999999999</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P64" t="n">
-        <v>71.13</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>71.13</v>
+        <v>90.81</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -6337,17 +6337,17 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>KEJARI OKUT (007190)</t>
+          <t>KEMENAG OKU (418457)</t>
         </is>
       </c>
     </row>
@@ -6362,62 +6362,62 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>574370</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>90.8</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>96.76000000000001</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I65" t="n">
         <v>100</v>
       </c>
       <c r="J65" t="n">
-        <v>81.59</v>
+        <v>59.85</v>
       </c>
       <c r="K65" t="n">
-        <v>100</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>93.69</v>
+        <v>92.31</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P65" t="n">
-        <v>70.94</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>70.94</v>
+        <v>90.58</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6429,17 +6429,17 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>MTSN 3 OKUS</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>MTSN 3 OKUS</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>KPU OKUT (656560)</t>
+          <t>MTSN 3 OKUS (574370)</t>
         </is>
       </c>
     </row>
@@ -6454,36 +6454,36 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>418461</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>91.06</v>
+        <v>81.81</v>
       </c>
       <c r="G66" t="n">
-        <v>93.83</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
         <v>100</v>
       </c>
       <c r="J66" t="n">
-        <v>82.12</v>
+        <v>63.62</v>
       </c>
       <c r="K66" t="n">
-        <v>99.95</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>87.70999999999999</v>
+        <v>96.81</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" t="n">
-        <v>51.08</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>63.85</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6521,17 +6521,17 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>KPU OKUS (656574)</t>
+          <t>KEMENAG OKU (418461)</t>
         </is>
       </c>
     </row>
@@ -6551,57 +6551,57 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>87.73</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>98.56</v>
+        <v>99.92</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>75.45</v>
+        <v>72.13</v>
       </c>
       <c r="K67" t="n">
         <v>100</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>97.12</v>
+        <v>99.69</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
-        <v>51.03</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>63.79</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6613,17 +6613,17 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>MAN 1 OKU (424245)</t>
         </is>
       </c>
     </row>
@@ -6638,62 +6638,62 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>666507</t>
+          <t>691653</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>90.12</v>
+        <v>75.84</v>
       </c>
       <c r="G68" t="n">
-        <v>89.23999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I68" t="n">
         <v>100</v>
       </c>
       <c r="J68" t="n">
-        <v>80.23999999999999</v>
+        <v>51.67</v>
       </c>
       <c r="K68" t="n">
-        <v>90</v>
+        <v>50.49</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>88.48</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P68" t="n">
-        <v>48.88</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>61.11</v>
+        <v>75.39</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6705,17 +6705,17 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>DISNAKERTRANS OKUT</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>DISNAKERTRANS OKUT</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666507)</t>
+          <t>DISNAKERTRANS OKUT (691653)</t>
         </is>
       </c>
     </row>
@@ -6730,24 +6730,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>574370</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>79.93000000000001</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>94.29000000000001</v>
+        <v>96.89</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6756,36 +6756,36 @@
         <v>100</v>
       </c>
       <c r="J69" t="n">
-        <v>59.85</v>
+        <v>83.47</v>
       </c>
       <c r="K69" t="n">
-        <v>96.26000000000001</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>92.31</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>47.46</v>
+        <v>71.2</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>59.33</v>
+        <v>71.2</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS (574370)</t>
+          <t>BPN OKUT (669055)</t>
         </is>
       </c>
     </row>

--- a/data/IKPA_DESEMBER_2025.xlsx
+++ b/data/IKPA_DESEMBER_2025.xlsx
@@ -2774,24 +2774,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>91.65000000000001</v>
+        <v>89.56</v>
       </c>
       <c r="G26" t="n">
-        <v>99.63</v>
+        <v>99.69</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -2800,36 +2800,36 @@
         <v>100</v>
       </c>
       <c r="J26" t="n">
-        <v>83.29000000000001</v>
+        <v>79.11</v>
       </c>
       <c r="K26" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>99.76000000000001</v>
+        <v>98.77</v>
       </c>
       <c r="O26" t="n">
         <v>100</v>
       </c>
       <c r="P26" t="n">
-        <v>77.37</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.70999999999999</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS (418462)</t>
+          <t>KEJARI OKUS (007208)</t>
         </is>
       </c>
     </row>
@@ -2871,19 +2871,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>111071</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>91.14</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>99.63</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -2892,10 +2892,10 @@
         <v>100</v>
       </c>
       <c r="J27" t="n">
-        <v>82.28</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>100</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="O27" t="n">
         <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>77.34</v>
+        <v>77.37</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>96.68000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2933,17 +2933,17 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (111071)</t>
+          <t>MTSN 2 OKUS (418462)</t>
         </is>
       </c>
     </row>
@@ -2958,24 +2958,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>656553</t>
+          <t>111071</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>93.44</v>
+        <v>91.14</v>
       </c>
       <c r="G28" t="n">
-        <v>96.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
         <v>100</v>
@@ -2984,36 +2984,36 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>86.87</v>
+        <v>82.28</v>
       </c>
       <c r="K28" t="n">
         <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>92.63</v>
+        <v>100</v>
       </c>
       <c r="O28" t="n">
         <v>100</v>
       </c>
       <c r="P28" t="n">
-        <v>96.63</v>
+        <v>77.34</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.63</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>KPU OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>KPU OKU (656553)</t>
+          <t>KEMENAG OKUT (111071)</t>
         </is>
       </c>
     </row>
@@ -3050,24 +3050,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>692334</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MUARA DUA</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>88.26000000000001</v>
+        <v>93.44</v>
       </c>
       <c r="G29" t="n">
-        <v>99.90000000000001</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -3076,25 +3076,25 @@
         <v>100</v>
       </c>
       <c r="J29" t="n">
-        <v>76.51000000000001</v>
+        <v>86.87</v>
       </c>
       <c r="K29" t="n">
-        <v>99.59</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>100</v>
+        <v>92.63</v>
       </c>
       <c r="O29" t="n">
         <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>96.39</v>
+        <v>96.63</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.39</v>
+        <v>96.63</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3117,17 +3117,17 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>KPU OKU</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA (692334)</t>
+          <t>KPU OKU (656553)</t>
         </is>
       </c>
     </row>
@@ -3142,24 +3142,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
+          <t>LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>89.92</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>99.94</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -3168,36 +3168,36 @@
         <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>79.84</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
+        <v>99.59</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>99.88</v>
+        <v>100</v>
       </c>
       <c r="O30" t="n">
         <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>76.95999999999999</v>
+        <v>96.39</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>96.20999999999999</v>
+        <v>96.39</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>LAPAS MUARA DUA</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS (661192)</t>
+          <t>LAPAS MUARA DUA (692334)</t>
         </is>
       </c>
     </row>
@@ -3239,19 +3239,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>94.62</v>
+        <v>89.92</v>
       </c>
       <c r="G31" t="n">
-        <v>95.44</v>
+        <v>99.94</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -3260,10 +3260,10 @@
         <v>100</v>
       </c>
       <c r="J31" t="n">
-        <v>89.23</v>
+        <v>79.84</v>
       </c>
       <c r="K31" t="n">
-        <v>94.78</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>96.09</v>
+        <v>99.88</v>
       </c>
       <c r="O31" t="n">
         <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>76.95</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.19</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666504)</t>
+          <t>MTSN 4 OKUS (661192)</t>
         </is>
       </c>
     </row>
@@ -3326,24 +3326,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>007190</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>87.45999999999999</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>99.73999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -3352,10 +3352,10 @@
         <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>74.91</v>
+        <v>83.47</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="L32" t="n">
         <v>100</v>
@@ -3364,13 +3364,13 @@
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>98.95999999999999</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="O32" t="n">
         <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>96.13</v>
+        <v>96.2</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.13</v>
+        <v>96.2</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>KEJARI OKUT (007190)</t>
+          <t>BPN OKUT (669055)</t>
         </is>
       </c>
     </row>
@@ -3423,19 +3423,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>90.66</v>
+        <v>94.62</v>
       </c>
       <c r="G33" t="n">
-        <v>98.04000000000001</v>
+        <v>95.44</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -3444,10 +3444,10 @@
         <v>100</v>
       </c>
       <c r="J33" t="n">
-        <v>81.31999999999999</v>
+        <v>89.23</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
+        <v>94.78</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3456,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>96.08</v>
+        <v>96.09</v>
       </c>
       <c r="O33" t="n">
         <v>100</v>
       </c>
       <c r="P33" t="n">
-        <v>76.81</v>
+        <v>76.95</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>96.01000000000001</v>
+        <v>96.19</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440502)</t>
+          <t>KEMENAG OKUT (666504)</t>
         </is>
       </c>
     </row>
@@ -3510,24 +3510,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>007190</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>89.28</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
@@ -3536,36 +3536,36 @@
         <v>100</v>
       </c>
       <c r="J34" t="n">
-        <v>78.55</v>
+        <v>74.91</v>
       </c>
       <c r="K34" t="n">
         <v>100</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>100</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="O34" t="n">
         <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>76.78</v>
+        <v>96.13</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>95.98</v>
+        <v>96.13</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>KEJARI OKUT</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS (662127)</t>
+          <t>KEJARI OKUT (007190)</t>
         </is>
       </c>
     </row>
@@ -3607,19 +3607,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>424967</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>90.04000000000001</v>
+        <v>90.66</v>
       </c>
       <c r="G35" t="n">
-        <v>98.70999999999999</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -3628,36 +3628,36 @@
         <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>80.08</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>94.83</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>100</v>
+        <v>96.08</v>
       </c>
       <c r="O35" t="n">
         <v>100</v>
       </c>
       <c r="P35" t="n">
-        <v>95.98</v>
+        <v>76.81</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.98</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3669,17 +3669,17 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT (424967)</t>
+          <t>KEMENAG OKUS (440502)</t>
         </is>
       </c>
     </row>
@@ -3694,24 +3694,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>424967</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>90.8</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>96.76000000000001</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>100</v>
@@ -3720,25 +3720,25 @@
         <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>81.59</v>
+        <v>80.08</v>
       </c>
       <c r="K36" t="n">
-        <v>100</v>
+        <v>94.83</v>
       </c>
       <c r="L36" t="n">
-        <v>93.33</v>
+        <v>100</v>
       </c>
       <c r="M36" t="n">
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>93.69</v>
+        <v>100</v>
       </c>
       <c r="O36" t="n">
         <v>100</v>
       </c>
       <c r="P36" t="n">
-        <v>95.94</v>
+        <v>95.98</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>95.94</v>
+        <v>95.98</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>KPU OKUT (656560)</t>
+          <t>MTSN 1 OKUT (424967)</t>
         </is>
       </c>
     </row>
@@ -3791,16 +3791,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>88.92</v>
+        <v>89.28</v>
       </c>
       <c r="G37" t="n">
         <v>100</v>
@@ -3812,7 +3812,7 @@
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>77.84</v>
+        <v>78.55</v>
       </c>
       <c r="K37" t="n">
         <v>100</v>
@@ -3830,7 +3830,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>76.68000000000001</v>
+        <v>76.78</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.84999999999999</v>
+        <v>95.98</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3853,17 +3853,17 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT (418471)</t>
+          <t>MAN 1 OKUS (662127)</t>
         </is>
       </c>
     </row>
@@ -3878,24 +3878,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>85.95999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -3904,25 +3904,25 @@
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>71.91</v>
+        <v>81.59</v>
       </c>
       <c r="K38" t="n">
         <v>100</v>
       </c>
       <c r="L38" t="n">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="M38" t="n">
         <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>100</v>
+        <v>93.69</v>
       </c>
       <c r="O38" t="n">
         <v>100</v>
       </c>
       <c r="P38" t="n">
-        <v>95.79000000000001</v>
+        <v>95.94</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.79000000000001</v>
+        <v>95.94</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>PN BATURAJA (098963)</t>
+          <t>KPU OKUT (656560)</t>
         </is>
       </c>
     </row>
@@ -3975,19 +3975,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>418471</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>89.20999999999999</v>
+        <v>88.92</v>
       </c>
       <c r="G39" t="n">
-        <v>98.42</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
@@ -3996,7 +3996,7 @@
         <v>100</v>
       </c>
       <c r="J39" t="n">
-        <v>78.41</v>
+        <v>77.84</v>
       </c>
       <c r="K39" t="n">
         <v>100</v>
@@ -4008,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>96.83</v>
+        <v>100</v>
       </c>
       <c r="O39" t="n">
         <v>100</v>
       </c>
       <c r="P39" t="n">
-        <v>76.44</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>95.56</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS (597558)</t>
+          <t>MTSN 2 OKUT (418471)</t>
         </is>
       </c>
     </row>
@@ -4062,24 +4062,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>90.33</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>97.31999999999999</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -4088,10 +4088,10 @@
         <v>100</v>
       </c>
       <c r="J40" t="n">
-        <v>80.66</v>
+        <v>71.91</v>
       </c>
       <c r="K40" t="n">
-        <v>93.77</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
         <v>100</v>
@@ -4100,13 +4100,13 @@
         <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>95.51000000000001</v>
+        <v>100</v>
       </c>
       <c r="O40" t="n">
         <v>100</v>
       </c>
       <c r="P40" t="n">
-        <v>95.40000000000001</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>95.40000000000001</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4129,17 +4129,17 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS (690801)</t>
+          <t>PN BATURAJA (098963)</t>
         </is>
       </c>
     </row>
@@ -4154,24 +4154,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>597558</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>91.06</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>93.83</v>
+        <v>98.42</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -4180,10 +4180,10 @@
         <v>100</v>
       </c>
       <c r="J41" t="n">
-        <v>82.12</v>
+        <v>78.41</v>
       </c>
       <c r="K41" t="n">
-        <v>99.95</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>87.70999999999999</v>
+        <v>96.83</v>
       </c>
       <c r="O41" t="n">
         <v>100</v>
       </c>
       <c r="P41" t="n">
-        <v>76.08</v>
+        <v>76.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.09999999999999</v>
+        <v>95.56</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4221,17 +4221,17 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>KPU OKUS (656574)</t>
+          <t>MAN 2 OKUS (597558)</t>
         </is>
       </c>
     </row>
@@ -4246,24 +4246,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
+          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>85.12</v>
+        <v>90.33</v>
       </c>
       <c r="G42" t="n">
-        <v>98.86</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>100</v>
@@ -4272,10 +4272,10 @@
         <v>100</v>
       </c>
       <c r="J42" t="n">
-        <v>70.23999999999999</v>
+        <v>80.66</v>
       </c>
       <c r="K42" t="n">
-        <v>100</v>
+        <v>93.77</v>
       </c>
       <c r="L42" t="n">
         <v>100</v>
@@ -4284,13 +4284,13 @@
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>95.44</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="O42" t="n">
         <v>100</v>
       </c>
       <c r="P42" t="n">
-        <v>95.08</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>95.08</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>BPN OKU (431142)</t>
+          <t>LOKA LABKESMAS (690801)</t>
         </is>
       </c>
     </row>
@@ -4338,24 +4338,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>87.73</v>
+        <v>91.06</v>
       </c>
       <c r="G43" t="n">
-        <v>98.56</v>
+        <v>93.83</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -4364,10 +4364,10 @@
         <v>100</v>
       </c>
       <c r="J43" t="n">
-        <v>75.45</v>
+        <v>82.12</v>
       </c>
       <c r="K43" t="n">
-        <v>100</v>
+        <v>99.95</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4376,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.12</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="O43" t="n">
         <v>100</v>
       </c>
       <c r="P43" t="n">
-        <v>76.03</v>
+        <v>76.08</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>95.04000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4405,17 +4405,17 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>KPU OKUS (656574)</t>
         </is>
       </c>
     </row>
@@ -4430,24 +4430,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>440504</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>86.75</v>
+        <v>85.12</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>98.86</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -4456,36 +4456,36 @@
         <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>73.5</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="K44" t="n">
         <v>100</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>100</v>
+        <v>95.44</v>
       </c>
       <c r="O44" t="n">
         <v>100</v>
       </c>
       <c r="P44" t="n">
-        <v>76.03</v>
+        <v>95.08</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.03</v>
+        <v>95.08</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4497,17 +4497,17 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440504)</t>
+          <t>BPN OKU (431142)</t>
         </is>
       </c>
     </row>
@@ -4527,19 +4527,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>87.27</v>
+        <v>87.73</v>
       </c>
       <c r="G45" t="n">
-        <v>97.89</v>
+        <v>98.56</v>
       </c>
       <c r="H45" t="n">
         <v>100</v>
@@ -4548,36 +4548,36 @@
         <v>100</v>
       </c>
       <c r="J45" t="n">
-        <v>74.54000000000001</v>
+        <v>75.45</v>
       </c>
       <c r="K45" t="n">
-        <v>96.16</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
-        <v>95.55</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>99.84</v>
+        <v>97.12</v>
       </c>
       <c r="O45" t="n">
         <v>100</v>
       </c>
       <c r="P45" t="n">
-        <v>94.95</v>
+        <v>76.03</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>94.95</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4589,17 +4589,17 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT (426066)</t>
+          <t>MTSN 1 OKU (426050)</t>
         </is>
       </c>
     </row>
@@ -4619,19 +4619,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>553792</t>
+          <t>440504</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>89</v>
+        <v>86.75</v>
       </c>
       <c r="G46" t="n">
-        <v>97.19</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
         <v>100</v>
@@ -4640,10 +4640,10 @@
         <v>100</v>
       </c>
       <c r="J46" t="n">
-        <v>78</v>
+        <v>73.5</v>
       </c>
       <c r="K46" t="n">
-        <v>94.37</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>100</v>
       </c>
       <c r="P46" t="n">
-        <v>75.56999999999999</v>
+        <v>76.03</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>94.47</v>
+        <v>95.03</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS (553792)</t>
+          <t>KEMENAG OKUS (440504)</t>
         </is>
       </c>
     </row>
@@ -4711,19 +4711,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>426066</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>88.69</v>
+        <v>87.27</v>
       </c>
       <c r="G47" t="n">
-        <v>95.83</v>
+        <v>97.89</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -4732,36 +4732,36 @@
         <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>77.37</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>96.13</v>
+        <v>96.16</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>95.55</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>95.52</v>
+        <v>99.84</v>
       </c>
       <c r="O47" t="n">
         <v>100</v>
       </c>
       <c r="P47" t="n">
-        <v>75.38</v>
+        <v>94.95</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>94.23</v>
+        <v>94.95</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4773,17 +4773,17 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418458)</t>
+          <t>MAN 1 OKUT (426066)</t>
         </is>
       </c>
     </row>
@@ -4803,19 +4803,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>553792</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>86.31999999999999</v>
+        <v>89</v>
       </c>
       <c r="G48" t="n">
-        <v>98.68000000000001</v>
+        <v>97.19</v>
       </c>
       <c r="H48" t="n">
         <v>100</v>
@@ -4824,10 +4824,10 @@
         <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>72.63</v>
+        <v>78</v>
       </c>
       <c r="K48" t="n">
-        <v>97.34999999999999</v>
+        <v>94.37</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>100</v>
       </c>
       <c r="P48" t="n">
-        <v>75.36</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>94.20999999999999</v>
+        <v>94.47</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666503)</t>
+          <t>MTSN 1 OKUS (553792)</t>
         </is>
       </c>
     </row>
@@ -4890,62 +4890,62 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>692340</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MARTAPURA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>77.09</v>
+        <v>88.69</v>
       </c>
       <c r="G49" t="n">
-        <v>99.73999999999999</v>
+        <v>95.83</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
       </c>
       <c r="I49" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>74.18000000000001</v>
+        <v>77.37</v>
       </c>
       <c r="K49" t="n">
-        <v>99.29000000000001</v>
+        <v>96.13</v>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>99.69</v>
+        <v>95.52</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
       </c>
       <c r="P49" t="n">
-        <v>93.95</v>
+        <v>75.38</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>93.95</v>
+        <v>94.23</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4957,17 +4957,17 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA (692340)</t>
+          <t>KEMENAG OKU (418458)</t>
         </is>
       </c>
     </row>
@@ -4982,24 +4982,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>066</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>111079</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>85.34</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>97.68000000000001</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -5008,10 +5008,10 @@
         <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>70.68000000000001</v>
+        <v>72.63</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -5020,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>95.37</v>
+        <v>100</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
       </c>
       <c r="P50" t="n">
-        <v>75.14</v>
+        <v>75.36</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>93.92</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>BNN OKUT (111079)</t>
+          <t>KEMENAG OKUT (666503)</t>
         </is>
       </c>
     </row>
@@ -5074,62 +5074,62 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>692340</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>LAPAS KELAS II B MARTAPURA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>84.59999999999999</v>
+        <v>77.09</v>
       </c>
       <c r="G51" t="n">
-        <v>98.61</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J51" t="n">
-        <v>69.19</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>97.22</v>
+        <v>99.69</v>
       </c>
       <c r="O51" t="n">
         <v>100</v>
       </c>
       <c r="P51" t="n">
-        <v>75.09999999999999</v>
+        <v>93.95</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>93.88</v>
+        <v>93.95</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666505)</t>
+          <t>LAPAS MARTAPURA (692340)</t>
         </is>
       </c>
     </row>
@@ -5166,24 +5166,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>066</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>344894</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
+          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>80.56999999999999</v>
+        <v>85.34</v>
       </c>
       <c r="G52" t="n">
-        <v>99.42</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
@@ -5192,36 +5192,36 @@
         <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>61.14</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>98.94</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>98.75</v>
+        <v>95.37</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
       </c>
       <c r="P52" t="n">
-        <v>93.83</v>
+        <v>75.14</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>93.83</v>
+        <v>93.92</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5233,17 +5233,17 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR (344894)</t>
+          <t>BNN OKUT (111079)</t>
         </is>
       </c>
     </row>
@@ -5258,62 +5258,62 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>007208</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>89.56</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>99.69</v>
+        <v>98.61</v>
       </c>
       <c r="H53" t="n">
-        <v>87.83</v>
+        <v>100</v>
       </c>
       <c r="I53" t="n">
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>79.11</v>
+        <v>69.19</v>
       </c>
       <c r="K53" t="n">
         <v>100</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>98.77</v>
+        <v>97.22</v>
       </c>
       <c r="O53" t="n">
-        <v>87.83</v>
+        <v>100</v>
       </c>
       <c r="P53" t="n">
-        <v>93.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>93.7</v>
+        <v>93.88</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>KEJARI OKUS (007208)</t>
+          <t>KEMENAG OKUT (666505)</t>
         </is>
       </c>
     </row>
@@ -5350,24 +5350,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>012</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>418459</t>
+          <t>344894</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>82.95999999999999</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>99.42</v>
       </c>
       <c r="H54" t="n">
         <v>100</v>
@@ -5376,36 +5376,36 @@
         <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>65.92</v>
+        <v>61.14</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>98.94</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>100</v>
+        <v>98.75</v>
       </c>
       <c r="O54" t="n">
         <v>100</v>
       </c>
       <c r="P54" t="n">
-        <v>74.89</v>
+        <v>93.83</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>93.61</v>
+        <v>93.83</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5417,17 +5417,17 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418459)</t>
+          <t>RUMKIT NOESMIR (344894)</t>
         </is>
       </c>
     </row>
@@ -5442,24 +5442,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>692725</t>
+          <t>418459</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>RUPBASAN KELAS II BATURAJA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>85.28</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>96.28</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
         <v>100</v>
@@ -5468,29 +5468,29 @@
         <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>70.55</v>
+        <v>65.92</v>
       </c>
       <c r="K55" t="n">
-        <v>95.12</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O55" t="n">
         <v>100</v>
       </c>
       <c r="P55" t="n">
-        <v>93.61</v>
+        <v>74.89</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R55" t="n">
@@ -5509,17 +5509,17 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA (692725)</t>
+          <t>KEMENAG OKU (418459)</t>
         </is>
       </c>
     </row>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" t="n">
-        <v>87.04000000000001</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6730,24 +6730,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
+          <t>RUPBASAN KELAS II BATURAJA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>91.73999999999999</v>
+        <v>85.28</v>
       </c>
       <c r="G69" t="n">
-        <v>96.89</v>
+        <v>96.28</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>100</v>
       </c>
       <c r="J69" t="n">
-        <v>83.47</v>
+        <v>70.55</v>
       </c>
       <c r="K69" t="n">
-        <v>99.20999999999999</v>
+        <v>95.12</v>
       </c>
       <c r="L69" t="n">
         <v>100</v>
@@ -6768,13 +6768,13 @@
         <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>88.34999999999999</v>
+        <v>90</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>71.2</v>
+        <v>68.61</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>71.2</v>
+        <v>68.61</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>BPN OKUT (669055)</t>
+          <t>RUPBASAN BATURAJA (692725)</t>
         </is>
       </c>
     </row>
